--- a/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
+++ b/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\trans\BPoEFUbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\trans\BPoEFUbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BC483C-F613-4B25-9BC2-ABE6324C6C38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A8E675-D07D-4232-9616-0A56AAEA69C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -102,15 +102,15 @@
     <sheet name="BPoEFUbVT-mtrbks-frgt-LPG" sheetId="99" r:id="rId87"/>
     <sheet name="BPoEFUbVT-mtrbks-frgt-hydgn" sheetId="100" r:id="rId88"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId89"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -314,9 +314,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -455,12 +455,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -469,13 +469,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -500,300 +500,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="AEO 37"/>
-      <sheetName val="AEO 17"/>
-      <sheetName val="Biodiesel Fraction"/>
-      <sheetName val="Plug-in Hybrid Elec Fraction"/>
-      <sheetName val="LDVs-psgr"/>
-      <sheetName val="BPoEFUbVT-LDVs-psgr-batelc"/>
-      <sheetName val="BPoEFUbVT-LDVs-psgr-natgas"/>
-      <sheetName val="BPoEFUbVT-LDVs-psgr-gasveh"/>
-      <sheetName val="BPoEFUbVT-LDVs-psgr-dslveh"/>
-      <sheetName val="BPoEFUbVT-LDVs-psgr-plghyb"/>
-      <sheetName val="BPoEFUbVT-LDVs-psgr-LPG"/>
-      <sheetName val="BPoEFUbVT-LDVs-psgr-hydgn"/>
-      <sheetName val="LDVs-frgt"/>
-      <sheetName val="BPoEFUbVT-LDVs-frgt-batelc"/>
-      <sheetName val="BPoEFUbVT-LDVs-frgt-natgas"/>
-      <sheetName val="BPoEFUbVT-LDVs-frgt-gasveh"/>
-      <sheetName val="BPoEFUbVT-LDVs-frgt-dslveh"/>
-      <sheetName val="BPoEFUbVT-LDVs-frgt-plghyb"/>
-      <sheetName val="BPoEFUbVT-LDVs-frgt-LPG"/>
-      <sheetName val="BPoEFUbVT-LDVs-frgt-hydgn"/>
-      <sheetName val="HDVs-psgr"/>
-      <sheetName val="BPoEFUbVT-HDVs-psgr-batelc"/>
-      <sheetName val="BPoEFUbVT-HDVs-psgr-natgas"/>
-      <sheetName val="BPoEFUbVT-HDVs-psgr-gasveh"/>
-      <sheetName val="BPoEFUbVT-HDVs-psgr-dslveh"/>
-      <sheetName val="BPoEFUbVT-HDVs-psgr-plghyb"/>
-      <sheetName val="BPoEFUbVT-HDVs-psgr-LPG"/>
-      <sheetName val="BPoEFUbVT-HDVs-psgr-hydgn"/>
-      <sheetName val="HDVs-frgt"/>
-      <sheetName val="BPoEFUbVT-HDVs-frgt-batelc"/>
-      <sheetName val="BPoEFUbVT-HDVs-frgt-natgas"/>
-      <sheetName val="BPoEFUbVT-HDVs-frgt-gasveh"/>
-      <sheetName val="BPoEFUbVT-HDVs-frgt-dslveh"/>
-      <sheetName val="BPoEFUbVT-HDVs-frgt-plghyb"/>
-      <sheetName val="BPoEFUbVT-HDVs-frgt-LPG"/>
-      <sheetName val="BPoEFUbVT-HDVs-frgt-hydgn"/>
-      <sheetName val="aircraft-psgr"/>
-      <sheetName val="BPoEFUbVT-aircraft-psgr-batelc"/>
-      <sheetName val="BPoEFUbVT-aircraft-psgr-natgas"/>
-      <sheetName val="BPoEFUbVT-aircraft-psgr-gasveh"/>
-      <sheetName val="BPoEFUbVT-aircraft-psgr-dslveh"/>
-      <sheetName val="BPoEFUbVT-aircraft-psgr-hydgn"/>
-      <sheetName val="aircraft-frgt"/>
-      <sheetName val="BPoEFUbVT-aircraft-frgt-batelc"/>
-      <sheetName val="BPoEFUbVT-aircraft-frgt-natgas"/>
-      <sheetName val="BPoEFUbVT-aircraft-frgt-gasveh"/>
-      <sheetName val="BPoEFUbVT-aircraft-frgt-dslveh"/>
-      <sheetName val="BPoEFUbVT-aircraft-frgt-hydgn"/>
-      <sheetName val="rail-psgr"/>
-      <sheetName val="BPoEFUbVT-rail-psgr-batelc"/>
-      <sheetName val="BPoEFUbVT-rail-psgr-natgas"/>
-      <sheetName val="BPoEFUbVT-rail-psgr-gasveh"/>
-      <sheetName val="BPoEFUbVT-rail-psgr-dslveh"/>
-      <sheetName val="BPoEFUbVT-rail-psgr-hydgn"/>
-      <sheetName val="rail-frgt"/>
-      <sheetName val="BPoEFUbVT-rail-frgt-batelc"/>
-      <sheetName val="BPoEFUbVT-rail-frgt-natgas"/>
-      <sheetName val="BPoEFUbVT-rail-frgt-gasveh"/>
-      <sheetName val="BPoEFUbVT-rail-frgt-dslveh"/>
-      <sheetName val="BPoEFUbVT-rail-frgt-hydgn"/>
-      <sheetName val="ships-psgr"/>
-      <sheetName val="BPoEFUbVT-ships-psgr-batelc"/>
-      <sheetName val="BPoEFUbVT-ships-psgr-natgas"/>
-      <sheetName val="BPoEFUbVT-ships-psgr-gasveh"/>
-      <sheetName val="BPoEFUbVT-ships-psgr-dslveh"/>
-      <sheetName val="BPoEFUbVT-ships-psgr-hydgn"/>
-      <sheetName val="ships-frgt"/>
-      <sheetName val="BPoEFUbVT-ships-frgt-batelc"/>
-      <sheetName val="BPoEFUbVT-ships-frgt-natgas"/>
-      <sheetName val="BPoEFUbVT-ships-frgt-gasveh"/>
-      <sheetName val="BPoEFUbVT-ships-frgt-dslveh"/>
-      <sheetName val="BPoEFUbVT-ships-frgt-hydgn"/>
-      <sheetName val="mtrbks-psgr"/>
-      <sheetName val="BPoEFUbVT-mtrbks-psgr-batelc"/>
-      <sheetName val="BPoEFUbVT-mtrbks-psgr-natgas"/>
-      <sheetName val="BPoEFUbVT-mtrbks-psgr-gasveh"/>
-      <sheetName val="BPoEFUbVT-mtrbks-psgr-dslveh"/>
-      <sheetName val="BPoEFUbVT-mtrbks-psgr-plghyb"/>
-      <sheetName val="BPoEFUbVT-mtrbks-psgr-LPG"/>
-      <sheetName val="BPoEFUbVT-mtrbks-psgr-hydgn"/>
-      <sheetName val="mtrbks-frgt"/>
-      <sheetName val="BPoEFUbVT-mtrbks-frgt-batelc"/>
-      <sheetName val="BPoEFUbVT-mtrbks-frgt-natgas"/>
-      <sheetName val="BPoEFUbVT-mtrbks-frgt-gasveh"/>
-      <sheetName val="BPoEFUbVT-mtrbks-frgt-dslveh"/>
-      <sheetName val="BPoEFUbVT-mtrbks-frgt-plghyb"/>
-      <sheetName val="BPoEFUbVT-mtrbks-frgt-LPG"/>
-      <sheetName val="BPoEFUbVT-mtrbks-frgt-hydgn"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="C1">
-            <v>2017</v>
-          </cell>
-          <cell r="D1">
-            <v>2018</v>
-          </cell>
-          <cell r="E1">
-            <v>2019</v>
-          </cell>
-          <cell r="F1">
-            <v>2020</v>
-          </cell>
-          <cell r="G1">
-            <v>2021</v>
-          </cell>
-          <cell r="H1">
-            <v>2022</v>
-          </cell>
-          <cell r="I1">
-            <v>2023</v>
-          </cell>
-          <cell r="J1">
-            <v>2024</v>
-          </cell>
-          <cell r="K1">
-            <v>2025</v>
-          </cell>
-          <cell r="L1">
-            <v>2026</v>
-          </cell>
-          <cell r="M1">
-            <v>2027</v>
-          </cell>
-          <cell r="N1">
-            <v>2028</v>
-          </cell>
-          <cell r="O1">
-            <v>2029</v>
-          </cell>
-          <cell r="P1">
-            <v>2030</v>
-          </cell>
-          <cell r="Q1">
-            <v>2031</v>
-          </cell>
-          <cell r="R1">
-            <v>2032</v>
-          </cell>
-          <cell r="S1">
-            <v>2033</v>
-          </cell>
-          <cell r="T1">
-            <v>2034</v>
-          </cell>
-          <cell r="U1">
-            <v>2035</v>
-          </cell>
-          <cell r="V1">
-            <v>2036</v>
-          </cell>
-          <cell r="W1">
-            <v>2037</v>
-          </cell>
-          <cell r="X1">
-            <v>2038</v>
-          </cell>
-          <cell r="Y1">
-            <v>2039</v>
-          </cell>
-          <cell r="Z1">
-            <v>2040</v>
-          </cell>
-          <cell r="AA1">
-            <v>2041</v>
-          </cell>
-          <cell r="AB1">
-            <v>2042</v>
-          </cell>
-          <cell r="AC1">
-            <v>2043</v>
-          </cell>
-          <cell r="AD1">
-            <v>2044</v>
-          </cell>
-          <cell r="AE1">
-            <v>2045</v>
-          </cell>
-          <cell r="AF1">
-            <v>2046</v>
-          </cell>
-          <cell r="AG1">
-            <v>2047</v>
-          </cell>
-          <cell r="AH1">
-            <v>2048</v>
-          </cell>
-          <cell r="AI1">
-            <v>2049</v>
-          </cell>
-          <cell r="AJ1">
-            <v>2050</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
-      <sheetData sheetId="86"/>
-      <sheetData sheetId="87"/>
-      <sheetData sheetId="88"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1119,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:A32"/>
     </sheetView>
   </sheetViews>
@@ -2628,7 +2334,7 @@
   <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B1" sqref="B1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,139 +2347,105 @@
         <v>32</v>
       </c>
       <c r="B1">
-        <f>'[1]AEO 37'!C1</f>
         <v>2017</v>
       </c>
       <c r="C1">
-        <f>'[1]AEO 37'!D1</f>
         <v>2018</v>
       </c>
       <c r="D1">
-        <f>'[1]AEO 37'!E1</f>
         <v>2019</v>
       </c>
       <c r="E1">
-        <f>'[1]AEO 37'!F1</f>
         <v>2020</v>
       </c>
       <c r="F1">
-        <f>'[1]AEO 37'!G1</f>
         <v>2021</v>
       </c>
       <c r="G1">
-        <f>'[1]AEO 37'!H1</f>
         <v>2022</v>
       </c>
       <c r="H1">
-        <f>'[1]AEO 37'!I1</f>
         <v>2023</v>
       </c>
       <c r="I1">
-        <f>'[1]AEO 37'!J1</f>
         <v>2024</v>
       </c>
       <c r="J1">
-        <f>'[1]AEO 37'!K1</f>
         <v>2025</v>
       </c>
       <c r="K1">
-        <f>'[1]AEO 37'!L1</f>
         <v>2026</v>
       </c>
       <c r="L1">
-        <f>'[1]AEO 37'!M1</f>
         <v>2027</v>
       </c>
       <c r="M1">
-        <f>'[1]AEO 37'!N1</f>
         <v>2028</v>
       </c>
       <c r="N1">
-        <f>'[1]AEO 37'!O1</f>
         <v>2029</v>
       </c>
       <c r="O1">
-        <f>'[1]AEO 37'!P1</f>
         <v>2030</v>
       </c>
       <c r="P1">
-        <f>'[1]AEO 37'!Q1</f>
         <v>2031</v>
       </c>
       <c r="Q1">
-        <f>'[1]AEO 37'!R1</f>
         <v>2032</v>
       </c>
       <c r="R1">
-        <f>'[1]AEO 37'!S1</f>
         <v>2033</v>
       </c>
       <c r="S1">
-        <f>'[1]AEO 37'!T1</f>
         <v>2034</v>
       </c>
       <c r="T1">
-        <f>'[1]AEO 37'!U1</f>
         <v>2035</v>
       </c>
       <c r="U1">
-        <f>'[1]AEO 37'!V1</f>
         <v>2036</v>
       </c>
       <c r="V1">
-        <f>'[1]AEO 37'!W1</f>
         <v>2037</v>
       </c>
       <c r="W1">
-        <f>'[1]AEO 37'!X1</f>
         <v>2038</v>
       </c>
       <c r="X1">
-        <f>'[1]AEO 37'!Y1</f>
         <v>2039</v>
       </c>
       <c r="Y1">
-        <f>'[1]AEO 37'!Z1</f>
         <v>2040</v>
       </c>
       <c r="Z1">
-        <f>'[1]AEO 37'!AA1</f>
         <v>2041</v>
       </c>
       <c r="AA1">
-        <f>'[1]AEO 37'!AB1</f>
         <v>2042</v>
       </c>
       <c r="AB1">
-        <f>'[1]AEO 37'!AC1</f>
         <v>2043</v>
       </c>
       <c r="AC1">
-        <f>'[1]AEO 37'!AD1</f>
         <v>2044</v>
       </c>
       <c r="AD1">
-        <f>'[1]AEO 37'!AE1</f>
         <v>2045</v>
       </c>
       <c r="AE1">
-        <f>'[1]AEO 37'!AF1</f>
         <v>2046</v>
       </c>
       <c r="AF1">
-        <f>'[1]AEO 37'!AG1</f>
         <v>2047</v>
       </c>
       <c r="AG1">
-        <f>'[1]AEO 37'!AH1</f>
         <v>2048</v>
       </c>
       <c r="AH1">
-        <f>'[1]AEO 37'!AI1</f>
         <v>2049</v>
       </c>
       <c r="AI1">
-        <f>'[1]AEO 37'!AJ1</f>
         <v>2050</v>
       </c>
     </row>
@@ -3862,7 +3534,7 @@
   <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B1" sqref="B1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3875,139 +3547,105 @@
         <v>32</v>
       </c>
       <c r="B1">
-        <f>'[1]AEO 37'!C1</f>
         <v>2017</v>
       </c>
       <c r="C1">
-        <f>'[1]AEO 37'!D1</f>
         <v>2018</v>
       </c>
       <c r="D1">
-        <f>'[1]AEO 37'!E1</f>
         <v>2019</v>
       </c>
       <c r="E1">
-        <f>'[1]AEO 37'!F1</f>
         <v>2020</v>
       </c>
       <c r="F1">
-        <f>'[1]AEO 37'!G1</f>
         <v>2021</v>
       </c>
       <c r="G1">
-        <f>'[1]AEO 37'!H1</f>
         <v>2022</v>
       </c>
       <c r="H1">
-        <f>'[1]AEO 37'!I1</f>
         <v>2023</v>
       </c>
       <c r="I1">
-        <f>'[1]AEO 37'!J1</f>
         <v>2024</v>
       </c>
       <c r="J1">
-        <f>'[1]AEO 37'!K1</f>
         <v>2025</v>
       </c>
       <c r="K1">
-        <f>'[1]AEO 37'!L1</f>
         <v>2026</v>
       </c>
       <c r="L1">
-        <f>'[1]AEO 37'!M1</f>
         <v>2027</v>
       </c>
       <c r="M1">
-        <f>'[1]AEO 37'!N1</f>
         <v>2028</v>
       </c>
       <c r="N1">
-        <f>'[1]AEO 37'!O1</f>
         <v>2029</v>
       </c>
       <c r="O1">
-        <f>'[1]AEO 37'!P1</f>
         <v>2030</v>
       </c>
       <c r="P1">
-        <f>'[1]AEO 37'!Q1</f>
         <v>2031</v>
       </c>
       <c r="Q1">
-        <f>'[1]AEO 37'!R1</f>
         <v>2032</v>
       </c>
       <c r="R1">
-        <f>'[1]AEO 37'!S1</f>
         <v>2033</v>
       </c>
       <c r="S1">
-        <f>'[1]AEO 37'!T1</f>
         <v>2034</v>
       </c>
       <c r="T1">
-        <f>'[1]AEO 37'!U1</f>
         <v>2035</v>
       </c>
       <c r="U1">
-        <f>'[1]AEO 37'!V1</f>
         <v>2036</v>
       </c>
       <c r="V1">
-        <f>'[1]AEO 37'!W1</f>
         <v>2037</v>
       </c>
       <c r="W1">
-        <f>'[1]AEO 37'!X1</f>
         <v>2038</v>
       </c>
       <c r="X1">
-        <f>'[1]AEO 37'!Y1</f>
         <v>2039</v>
       </c>
       <c r="Y1">
-        <f>'[1]AEO 37'!Z1</f>
         <v>2040</v>
       </c>
       <c r="Z1">
-        <f>'[1]AEO 37'!AA1</f>
         <v>2041</v>
       </c>
       <c r="AA1">
-        <f>'[1]AEO 37'!AB1</f>
         <v>2042</v>
       </c>
       <c r="AB1">
-        <f>'[1]AEO 37'!AC1</f>
         <v>2043</v>
       </c>
       <c r="AC1">
-        <f>'[1]AEO 37'!AD1</f>
         <v>2044</v>
       </c>
       <c r="AD1">
-        <f>'[1]AEO 37'!AE1</f>
         <v>2045</v>
       </c>
       <c r="AE1">
-        <f>'[1]AEO 37'!AF1</f>
         <v>2046</v>
       </c>
       <c r="AF1">
-        <f>'[1]AEO 37'!AG1</f>
         <v>2047</v>
       </c>
       <c r="AG1">
-        <f>'[1]AEO 37'!AH1</f>
         <v>2048</v>
       </c>
       <c r="AH1">
-        <f>'[1]AEO 37'!AI1</f>
         <v>2049</v>
       </c>
       <c r="AI1">
-        <f>'[1]AEO 37'!AJ1</f>
         <v>2050</v>
       </c>
     </row>
@@ -11341,7 +10979,9 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AI1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11353,139 +10993,105 @@
         <v>32</v>
       </c>
       <c r="B1">
-        <f>'[1]AEO 37'!C1</f>
         <v>2017</v>
       </c>
       <c r="C1">
-        <f>'[1]AEO 37'!D1</f>
         <v>2018</v>
       </c>
       <c r="D1">
-        <f>'[1]AEO 37'!E1</f>
         <v>2019</v>
       </c>
       <c r="E1">
-        <f>'[1]AEO 37'!F1</f>
         <v>2020</v>
       </c>
       <c r="F1">
-        <f>'[1]AEO 37'!G1</f>
         <v>2021</v>
       </c>
       <c r="G1">
-        <f>'[1]AEO 37'!H1</f>
         <v>2022</v>
       </c>
       <c r="H1">
-        <f>'[1]AEO 37'!I1</f>
         <v>2023</v>
       </c>
       <c r="I1">
-        <f>'[1]AEO 37'!J1</f>
         <v>2024</v>
       </c>
       <c r="J1">
-        <f>'[1]AEO 37'!K1</f>
         <v>2025</v>
       </c>
       <c r="K1">
-        <f>'[1]AEO 37'!L1</f>
         <v>2026</v>
       </c>
       <c r="L1">
-        <f>'[1]AEO 37'!M1</f>
         <v>2027</v>
       </c>
       <c r="M1">
-        <f>'[1]AEO 37'!N1</f>
         <v>2028</v>
       </c>
       <c r="N1">
-        <f>'[1]AEO 37'!O1</f>
         <v>2029</v>
       </c>
       <c r="O1">
-        <f>'[1]AEO 37'!P1</f>
         <v>2030</v>
       </c>
       <c r="P1">
-        <f>'[1]AEO 37'!Q1</f>
         <v>2031</v>
       </c>
       <c r="Q1">
-        <f>'[1]AEO 37'!R1</f>
         <v>2032</v>
       </c>
       <c r="R1">
-        <f>'[1]AEO 37'!S1</f>
         <v>2033</v>
       </c>
       <c r="S1">
-        <f>'[1]AEO 37'!T1</f>
         <v>2034</v>
       </c>
       <c r="T1">
-        <f>'[1]AEO 37'!U1</f>
         <v>2035</v>
       </c>
       <c r="U1">
-        <f>'[1]AEO 37'!V1</f>
         <v>2036</v>
       </c>
       <c r="V1">
-        <f>'[1]AEO 37'!W1</f>
         <v>2037</v>
       </c>
       <c r="W1">
-        <f>'[1]AEO 37'!X1</f>
         <v>2038</v>
       </c>
       <c r="X1">
-        <f>'[1]AEO 37'!Y1</f>
         <v>2039</v>
       </c>
       <c r="Y1">
-        <f>'[1]AEO 37'!Z1</f>
         <v>2040</v>
       </c>
       <c r="Z1">
-        <f>'[1]AEO 37'!AA1</f>
         <v>2041</v>
       </c>
       <c r="AA1">
-        <f>'[1]AEO 37'!AB1</f>
         <v>2042</v>
       </c>
       <c r="AB1">
-        <f>'[1]AEO 37'!AC1</f>
         <v>2043</v>
       </c>
       <c r="AC1">
-        <f>'[1]AEO 37'!AD1</f>
         <v>2044</v>
       </c>
       <c r="AD1">
-        <f>'[1]AEO 37'!AE1</f>
         <v>2045</v>
       </c>
       <c r="AE1">
-        <f>'[1]AEO 37'!AF1</f>
         <v>2046</v>
       </c>
       <c r="AF1">
-        <f>'[1]AEO 37'!AG1</f>
         <v>2047</v>
       </c>
       <c r="AG1">
-        <f>'[1]AEO 37'!AH1</f>
         <v>2048</v>
       </c>
       <c r="AH1">
-        <f>'[1]AEO 37'!AI1</f>
         <v>2049</v>
       </c>
       <c r="AI1">
-        <f>'[1]AEO 37'!AJ1</f>
         <v>2050</v>
       </c>
     </row>
@@ -12570,8 +12176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8039E02B-7B65-44C7-BAEF-F5807578803D}">
   <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12930,7 +12536,9 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AI1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12942,139 +12550,105 @@
         <v>32</v>
       </c>
       <c r="B1">
-        <f>'[1]AEO 37'!C1</f>
         <v>2017</v>
       </c>
       <c r="C1">
-        <f>'[1]AEO 37'!D1</f>
         <v>2018</v>
       </c>
       <c r="D1">
-        <f>'[1]AEO 37'!E1</f>
         <v>2019</v>
       </c>
       <c r="E1">
-        <f>'[1]AEO 37'!F1</f>
         <v>2020</v>
       </c>
       <c r="F1">
-        <f>'[1]AEO 37'!G1</f>
         <v>2021</v>
       </c>
       <c r="G1">
-        <f>'[1]AEO 37'!H1</f>
         <v>2022</v>
       </c>
       <c r="H1">
-        <f>'[1]AEO 37'!I1</f>
         <v>2023</v>
       </c>
       <c r="I1">
-        <f>'[1]AEO 37'!J1</f>
         <v>2024</v>
       </c>
       <c r="J1">
-        <f>'[1]AEO 37'!K1</f>
         <v>2025</v>
       </c>
       <c r="K1">
-        <f>'[1]AEO 37'!L1</f>
         <v>2026</v>
       </c>
       <c r="L1">
-        <f>'[1]AEO 37'!M1</f>
         <v>2027</v>
       </c>
       <c r="M1">
-        <f>'[1]AEO 37'!N1</f>
         <v>2028</v>
       </c>
       <c r="N1">
-        <f>'[1]AEO 37'!O1</f>
         <v>2029</v>
       </c>
       <c r="O1">
-        <f>'[1]AEO 37'!P1</f>
         <v>2030</v>
       </c>
       <c r="P1">
-        <f>'[1]AEO 37'!Q1</f>
         <v>2031</v>
       </c>
       <c r="Q1">
-        <f>'[1]AEO 37'!R1</f>
         <v>2032</v>
       </c>
       <c r="R1">
-        <f>'[1]AEO 37'!S1</f>
         <v>2033</v>
       </c>
       <c r="S1">
-        <f>'[1]AEO 37'!T1</f>
         <v>2034</v>
       </c>
       <c r="T1">
-        <f>'[1]AEO 37'!U1</f>
         <v>2035</v>
       </c>
       <c r="U1">
-        <f>'[1]AEO 37'!V1</f>
         <v>2036</v>
       </c>
       <c r="V1">
-        <f>'[1]AEO 37'!W1</f>
         <v>2037</v>
       </c>
       <c r="W1">
-        <f>'[1]AEO 37'!X1</f>
         <v>2038</v>
       </c>
       <c r="X1">
-        <f>'[1]AEO 37'!Y1</f>
         <v>2039</v>
       </c>
       <c r="Y1">
-        <f>'[1]AEO 37'!Z1</f>
         <v>2040</v>
       </c>
       <c r="Z1">
-        <f>'[1]AEO 37'!AA1</f>
         <v>2041</v>
       </c>
       <c r="AA1">
-        <f>'[1]AEO 37'!AB1</f>
         <v>2042</v>
       </c>
       <c r="AB1">
-        <f>'[1]AEO 37'!AC1</f>
         <v>2043</v>
       </c>
       <c r="AC1">
-        <f>'[1]AEO 37'!AD1</f>
         <v>2044</v>
       </c>
       <c r="AD1">
-        <f>'[1]AEO 37'!AE1</f>
         <v>2045</v>
       </c>
       <c r="AE1">
-        <f>'[1]AEO 37'!AF1</f>
         <v>2046</v>
       </c>
       <c r="AF1">
-        <f>'[1]AEO 37'!AG1</f>
         <v>2047</v>
       </c>
       <c r="AG1">
-        <f>'[1]AEO 37'!AH1</f>
         <v>2048</v>
       </c>
       <c r="AH1">
-        <f>'[1]AEO 37'!AI1</f>
         <v>2049</v>
       </c>
       <c r="AI1">
-        <f>'[1]AEO 37'!AJ1</f>
         <v>2050</v>
       </c>
     </row>
@@ -20372,7 +19946,7 @@
   <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B1" sqref="B1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20385,139 +19959,105 @@
         <v>32</v>
       </c>
       <c r="B1">
-        <f>'[1]AEO 37'!C1</f>
         <v>2017</v>
       </c>
       <c r="C1">
-        <f>'[1]AEO 37'!D1</f>
         <v>2018</v>
       </c>
       <c r="D1">
-        <f>'[1]AEO 37'!E1</f>
         <v>2019</v>
       </c>
       <c r="E1">
-        <f>'[1]AEO 37'!F1</f>
         <v>2020</v>
       </c>
       <c r="F1">
-        <f>'[1]AEO 37'!G1</f>
         <v>2021</v>
       </c>
       <c r="G1">
-        <f>'[1]AEO 37'!H1</f>
         <v>2022</v>
       </c>
       <c r="H1">
-        <f>'[1]AEO 37'!I1</f>
         <v>2023</v>
       </c>
       <c r="I1">
-        <f>'[1]AEO 37'!J1</f>
         <v>2024</v>
       </c>
       <c r="J1">
-        <f>'[1]AEO 37'!K1</f>
         <v>2025</v>
       </c>
       <c r="K1">
-        <f>'[1]AEO 37'!L1</f>
         <v>2026</v>
       </c>
       <c r="L1">
-        <f>'[1]AEO 37'!M1</f>
         <v>2027</v>
       </c>
       <c r="M1">
-        <f>'[1]AEO 37'!N1</f>
         <v>2028</v>
       </c>
       <c r="N1">
-        <f>'[1]AEO 37'!O1</f>
         <v>2029</v>
       </c>
       <c r="O1">
-        <f>'[1]AEO 37'!P1</f>
         <v>2030</v>
       </c>
       <c r="P1">
-        <f>'[1]AEO 37'!Q1</f>
         <v>2031</v>
       </c>
       <c r="Q1">
-        <f>'[1]AEO 37'!R1</f>
         <v>2032</v>
       </c>
       <c r="R1">
-        <f>'[1]AEO 37'!S1</f>
         <v>2033</v>
       </c>
       <c r="S1">
-        <f>'[1]AEO 37'!T1</f>
         <v>2034</v>
       </c>
       <c r="T1">
-        <f>'[1]AEO 37'!U1</f>
         <v>2035</v>
       </c>
       <c r="U1">
-        <f>'[1]AEO 37'!V1</f>
         <v>2036</v>
       </c>
       <c r="V1">
-        <f>'[1]AEO 37'!W1</f>
         <v>2037</v>
       </c>
       <c r="W1">
-        <f>'[1]AEO 37'!X1</f>
         <v>2038</v>
       </c>
       <c r="X1">
-        <f>'[1]AEO 37'!Y1</f>
         <v>2039</v>
       </c>
       <c r="Y1">
-        <f>'[1]AEO 37'!Z1</f>
         <v>2040</v>
       </c>
       <c r="Z1">
-        <f>'[1]AEO 37'!AA1</f>
         <v>2041</v>
       </c>
       <c r="AA1">
-        <f>'[1]AEO 37'!AB1</f>
         <v>2042</v>
       </c>
       <c r="AB1">
-        <f>'[1]AEO 37'!AC1</f>
         <v>2043</v>
       </c>
       <c r="AC1">
-        <f>'[1]AEO 37'!AD1</f>
         <v>2044</v>
       </c>
       <c r="AD1">
-        <f>'[1]AEO 37'!AE1</f>
         <v>2045</v>
       </c>
       <c r="AE1">
-        <f>'[1]AEO 37'!AF1</f>
         <v>2046</v>
       </c>
       <c r="AF1">
-        <f>'[1]AEO 37'!AG1</f>
         <v>2047</v>
       </c>
       <c r="AG1">
-        <f>'[1]AEO 37'!AH1</f>
         <v>2048</v>
       </c>
       <c r="AH1">
-        <f>'[1]AEO 37'!AI1</f>
         <v>2049</v>
       </c>
       <c r="AI1">
-        <f>'[1]AEO 37'!AJ1</f>
         <v>2050</v>
       </c>
     </row>
@@ -21605,7 +21145,9 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AI1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21617,139 +21159,105 @@
         <v>32</v>
       </c>
       <c r="B1">
-        <f>'[1]AEO 37'!C1</f>
         <v>2017</v>
       </c>
       <c r="C1">
-        <f>'[1]AEO 37'!D1</f>
         <v>2018</v>
       </c>
       <c r="D1">
-        <f>'[1]AEO 37'!E1</f>
         <v>2019</v>
       </c>
       <c r="E1">
-        <f>'[1]AEO 37'!F1</f>
         <v>2020</v>
       </c>
       <c r="F1">
-        <f>'[1]AEO 37'!G1</f>
         <v>2021</v>
       </c>
       <c r="G1">
-        <f>'[1]AEO 37'!H1</f>
         <v>2022</v>
       </c>
       <c r="H1">
-        <f>'[1]AEO 37'!I1</f>
         <v>2023</v>
       </c>
       <c r="I1">
-        <f>'[1]AEO 37'!J1</f>
         <v>2024</v>
       </c>
       <c r="J1">
-        <f>'[1]AEO 37'!K1</f>
         <v>2025</v>
       </c>
       <c r="K1">
-        <f>'[1]AEO 37'!L1</f>
         <v>2026</v>
       </c>
       <c r="L1">
-        <f>'[1]AEO 37'!M1</f>
         <v>2027</v>
       </c>
       <c r="M1">
-        <f>'[1]AEO 37'!N1</f>
         <v>2028</v>
       </c>
       <c r="N1">
-        <f>'[1]AEO 37'!O1</f>
         <v>2029</v>
       </c>
       <c r="O1">
-        <f>'[1]AEO 37'!P1</f>
         <v>2030</v>
       </c>
       <c r="P1">
-        <f>'[1]AEO 37'!Q1</f>
         <v>2031</v>
       </c>
       <c r="Q1">
-        <f>'[1]AEO 37'!R1</f>
         <v>2032</v>
       </c>
       <c r="R1">
-        <f>'[1]AEO 37'!S1</f>
         <v>2033</v>
       </c>
       <c r="S1">
-        <f>'[1]AEO 37'!T1</f>
         <v>2034</v>
       </c>
       <c r="T1">
-        <f>'[1]AEO 37'!U1</f>
         <v>2035</v>
       </c>
       <c r="U1">
-        <f>'[1]AEO 37'!V1</f>
         <v>2036</v>
       </c>
       <c r="V1">
-        <f>'[1]AEO 37'!W1</f>
         <v>2037</v>
       </c>
       <c r="W1">
-        <f>'[1]AEO 37'!X1</f>
         <v>2038</v>
       </c>
       <c r="X1">
-        <f>'[1]AEO 37'!Y1</f>
         <v>2039</v>
       </c>
       <c r="Y1">
-        <f>'[1]AEO 37'!Z1</f>
         <v>2040</v>
       </c>
       <c r="Z1">
-        <f>'[1]AEO 37'!AA1</f>
         <v>2041</v>
       </c>
       <c r="AA1">
-        <f>'[1]AEO 37'!AB1</f>
         <v>2042</v>
       </c>
       <c r="AB1">
-        <f>'[1]AEO 37'!AC1</f>
         <v>2043</v>
       </c>
       <c r="AC1">
-        <f>'[1]AEO 37'!AD1</f>
         <v>2044</v>
       </c>
       <c r="AD1">
-        <f>'[1]AEO 37'!AE1</f>
         <v>2045</v>
       </c>
       <c r="AE1">
-        <f>'[1]AEO 37'!AF1</f>
         <v>2046</v>
       </c>
       <c r="AF1">
-        <f>'[1]AEO 37'!AG1</f>
         <v>2047</v>
       </c>
       <c r="AG1">
-        <f>'[1]AEO 37'!AH1</f>
         <v>2048</v>
       </c>
       <c r="AH1">
-        <f>'[1]AEO 37'!AI1</f>
         <v>2049</v>
       </c>
       <c r="AI1">
-        <f>'[1]AEO 37'!AJ1</f>
         <v>2050</v>
       </c>
     </row>
@@ -29100,7 +28608,9 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AI1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29112,139 +28622,105 @@
         <v>32</v>
       </c>
       <c r="B1">
-        <f>'[1]AEO 37'!C1</f>
         <v>2017</v>
       </c>
       <c r="C1">
-        <f>'[1]AEO 37'!D1</f>
         <v>2018</v>
       </c>
       <c r="D1">
-        <f>'[1]AEO 37'!E1</f>
         <v>2019</v>
       </c>
       <c r="E1">
-        <f>'[1]AEO 37'!F1</f>
         <v>2020</v>
       </c>
       <c r="F1">
-        <f>'[1]AEO 37'!G1</f>
         <v>2021</v>
       </c>
       <c r="G1">
-        <f>'[1]AEO 37'!H1</f>
         <v>2022</v>
       </c>
       <c r="H1">
-        <f>'[1]AEO 37'!I1</f>
         <v>2023</v>
       </c>
       <c r="I1">
-        <f>'[1]AEO 37'!J1</f>
         <v>2024</v>
       </c>
       <c r="J1">
-        <f>'[1]AEO 37'!K1</f>
         <v>2025</v>
       </c>
       <c r="K1">
-        <f>'[1]AEO 37'!L1</f>
         <v>2026</v>
       </c>
       <c r="L1">
-        <f>'[1]AEO 37'!M1</f>
         <v>2027</v>
       </c>
       <c r="M1">
-        <f>'[1]AEO 37'!N1</f>
         <v>2028</v>
       </c>
       <c r="N1">
-        <f>'[1]AEO 37'!O1</f>
         <v>2029</v>
       </c>
       <c r="O1">
-        <f>'[1]AEO 37'!P1</f>
         <v>2030</v>
       </c>
       <c r="P1">
-        <f>'[1]AEO 37'!Q1</f>
         <v>2031</v>
       </c>
       <c r="Q1">
-        <f>'[1]AEO 37'!R1</f>
         <v>2032</v>
       </c>
       <c r="R1">
-        <f>'[1]AEO 37'!S1</f>
         <v>2033</v>
       </c>
       <c r="S1">
-        <f>'[1]AEO 37'!T1</f>
         <v>2034</v>
       </c>
       <c r="T1">
-        <f>'[1]AEO 37'!U1</f>
         <v>2035</v>
       </c>
       <c r="U1">
-        <f>'[1]AEO 37'!V1</f>
         <v>2036</v>
       </c>
       <c r="V1">
-        <f>'[1]AEO 37'!W1</f>
         <v>2037</v>
       </c>
       <c r="W1">
-        <f>'[1]AEO 37'!X1</f>
         <v>2038</v>
       </c>
       <c r="X1">
-        <f>'[1]AEO 37'!Y1</f>
         <v>2039</v>
       </c>
       <c r="Y1">
-        <f>'[1]AEO 37'!Z1</f>
         <v>2040</v>
       </c>
       <c r="Z1">
-        <f>'[1]AEO 37'!AA1</f>
         <v>2041</v>
       </c>
       <c r="AA1">
-        <f>'[1]AEO 37'!AB1</f>
         <v>2042</v>
       </c>
       <c r="AB1">
-        <f>'[1]AEO 37'!AC1</f>
         <v>2043</v>
       </c>
       <c r="AC1">
-        <f>'[1]AEO 37'!AD1</f>
         <v>2044</v>
       </c>
       <c r="AD1">
-        <f>'[1]AEO 37'!AE1</f>
         <v>2045</v>
       </c>
       <c r="AE1">
-        <f>'[1]AEO 37'!AF1</f>
         <v>2046</v>
       </c>
       <c r="AF1">
-        <f>'[1]AEO 37'!AG1</f>
         <v>2047</v>
       </c>
       <c r="AG1">
-        <f>'[1]AEO 37'!AH1</f>
         <v>2048</v>
       </c>
       <c r="AH1">
-        <f>'[1]AEO 37'!AI1</f>
         <v>2049</v>
       </c>
       <c r="AI1">
-        <f>'[1]AEO 37'!AJ1</f>
         <v>2050</v>
       </c>
     </row>
@@ -30332,7 +29808,9 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AI1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -30344,139 +29822,105 @@
         <v>32</v>
       </c>
       <c r="B1">
-        <f>'[1]AEO 37'!C1</f>
         <v>2017</v>
       </c>
       <c r="C1">
-        <f>'[1]AEO 37'!D1</f>
         <v>2018</v>
       </c>
       <c r="D1">
-        <f>'[1]AEO 37'!E1</f>
         <v>2019</v>
       </c>
       <c r="E1">
-        <f>'[1]AEO 37'!F1</f>
         <v>2020</v>
       </c>
       <c r="F1">
-        <f>'[1]AEO 37'!G1</f>
         <v>2021</v>
       </c>
       <c r="G1">
-        <f>'[1]AEO 37'!H1</f>
         <v>2022</v>
       </c>
       <c r="H1">
-        <f>'[1]AEO 37'!I1</f>
         <v>2023</v>
       </c>
       <c r="I1">
-        <f>'[1]AEO 37'!J1</f>
         <v>2024</v>
       </c>
       <c r="J1">
-        <f>'[1]AEO 37'!K1</f>
         <v>2025</v>
       </c>
       <c r="K1">
-        <f>'[1]AEO 37'!L1</f>
         <v>2026</v>
       </c>
       <c r="L1">
-        <f>'[1]AEO 37'!M1</f>
         <v>2027</v>
       </c>
       <c r="M1">
-        <f>'[1]AEO 37'!N1</f>
         <v>2028</v>
       </c>
       <c r="N1">
-        <f>'[1]AEO 37'!O1</f>
         <v>2029</v>
       </c>
       <c r="O1">
-        <f>'[1]AEO 37'!P1</f>
         <v>2030</v>
       </c>
       <c r="P1">
-        <f>'[1]AEO 37'!Q1</f>
         <v>2031</v>
       </c>
       <c r="Q1">
-        <f>'[1]AEO 37'!R1</f>
         <v>2032</v>
       </c>
       <c r="R1">
-        <f>'[1]AEO 37'!S1</f>
         <v>2033</v>
       </c>
       <c r="S1">
-        <f>'[1]AEO 37'!T1</f>
         <v>2034</v>
       </c>
       <c r="T1">
-        <f>'[1]AEO 37'!U1</f>
         <v>2035</v>
       </c>
       <c r="U1">
-        <f>'[1]AEO 37'!V1</f>
         <v>2036</v>
       </c>
       <c r="V1">
-        <f>'[1]AEO 37'!W1</f>
         <v>2037</v>
       </c>
       <c r="W1">
-        <f>'[1]AEO 37'!X1</f>
         <v>2038</v>
       </c>
       <c r="X1">
-        <f>'[1]AEO 37'!Y1</f>
         <v>2039</v>
       </c>
       <c r="Y1">
-        <f>'[1]AEO 37'!Z1</f>
         <v>2040</v>
       </c>
       <c r="Z1">
-        <f>'[1]AEO 37'!AA1</f>
         <v>2041</v>
       </c>
       <c r="AA1">
-        <f>'[1]AEO 37'!AB1</f>
         <v>2042</v>
       </c>
       <c r="AB1">
-        <f>'[1]AEO 37'!AC1</f>
         <v>2043</v>
       </c>
       <c r="AC1">
-        <f>'[1]AEO 37'!AD1</f>
         <v>2044</v>
       </c>
       <c r="AD1">
-        <f>'[1]AEO 37'!AE1</f>
         <v>2045</v>
       </c>
       <c r="AE1">
-        <f>'[1]AEO 37'!AF1</f>
         <v>2046</v>
       </c>
       <c r="AF1">
-        <f>'[1]AEO 37'!AG1</f>
         <v>2047</v>
       </c>
       <c r="AG1">
-        <f>'[1]AEO 37'!AH1</f>
         <v>2048</v>
       </c>
       <c r="AH1">
-        <f>'[1]AEO 37'!AI1</f>
         <v>2049</v>
       </c>
       <c r="AI1">
-        <f>'[1]AEO 37'!AJ1</f>
         <v>2050</v>
       </c>
     </row>
@@ -31579,8 +31023,8 @@
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59535,8 +58979,8 @@
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59656,105 +59100,139 @@
         <v>3</v>
       </c>
       <c r="B2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!B2</f>
         <v>0</v>
       </c>
       <c r="C2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!C2</f>
         <v>0</v>
       </c>
       <c r="D2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!D2</f>
         <v>0</v>
       </c>
       <c r="E2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!E2</f>
         <v>0</v>
       </c>
       <c r="F2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!F2</f>
         <v>0</v>
       </c>
       <c r="G2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!G2</f>
         <v>0</v>
       </c>
       <c r="H2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!H2</f>
         <v>0</v>
       </c>
       <c r="I2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!I2</f>
         <v>0</v>
       </c>
       <c r="J2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!J2</f>
         <v>0</v>
       </c>
       <c r="K2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!K2</f>
         <v>0</v>
       </c>
       <c r="L2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!L2</f>
         <v>0</v>
       </c>
       <c r="M2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!M2</f>
         <v>0</v>
       </c>
       <c r="N2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!N2</f>
         <v>0</v>
       </c>
       <c r="O2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!O2</f>
         <v>0</v>
       </c>
       <c r="P2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!P2</f>
         <v>0</v>
       </c>
       <c r="Q2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Q2</f>
         <v>0</v>
       </c>
       <c r="R2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!R2</f>
         <v>0</v>
       </c>
       <c r="S2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!S2</f>
         <v>0</v>
       </c>
       <c r="T2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!T2</f>
         <v>0</v>
       </c>
       <c r="U2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!U2</f>
         <v>0</v>
       </c>
       <c r="V2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!V2</f>
         <v>0</v>
       </c>
       <c r="W2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!W2</f>
         <v>0</v>
       </c>
       <c r="X2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!X2</f>
         <v>0</v>
       </c>
       <c r="Y2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Y2</f>
         <v>0</v>
       </c>
       <c r="Z2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Z2</f>
         <v>0</v>
       </c>
       <c r="AA2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AA2</f>
         <v>0</v>
       </c>
       <c r="AB2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AB2</f>
         <v>0</v>
       </c>
       <c r="AC2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AC2</f>
         <v>0</v>
       </c>
       <c r="AD2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AD2</f>
         <v>0</v>
       </c>
       <c r="AE2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AE2</f>
         <v>0</v>
       </c>
       <c r="AF2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AF2</f>
         <v>0</v>
       </c>
       <c r="AG2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AG2</f>
         <v>0</v>
       </c>
       <c r="AH2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AH2</f>
         <v>0</v>
       </c>
       <c r="AI2">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AI2</f>
         <v>0</v>
       </c>
     </row>
@@ -59763,105 +59241,139 @@
         <v>4</v>
       </c>
       <c r="B3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!B3</f>
         <v>0</v>
       </c>
       <c r="C3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!C3</f>
         <v>0</v>
       </c>
       <c r="D3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!D3</f>
         <v>0</v>
       </c>
       <c r="E3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!E3</f>
         <v>0</v>
       </c>
       <c r="F3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!F3</f>
         <v>0</v>
       </c>
       <c r="G3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!G3</f>
         <v>0</v>
       </c>
       <c r="H3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!H3</f>
         <v>0</v>
       </c>
       <c r="I3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!I3</f>
         <v>0</v>
       </c>
       <c r="J3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!J3</f>
         <v>0</v>
       </c>
       <c r="K3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!K3</f>
         <v>0</v>
       </c>
       <c r="L3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!L3</f>
         <v>0</v>
       </c>
       <c r="M3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!M3</f>
         <v>0</v>
       </c>
       <c r="N3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!N3</f>
         <v>0</v>
       </c>
       <c r="O3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!O3</f>
         <v>0</v>
       </c>
       <c r="P3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!P3</f>
         <v>0</v>
       </c>
       <c r="Q3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Q3</f>
         <v>0</v>
       </c>
       <c r="R3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!R3</f>
         <v>0</v>
       </c>
       <c r="S3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!S3</f>
         <v>0</v>
       </c>
       <c r="T3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!T3</f>
         <v>0</v>
       </c>
       <c r="U3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!U3</f>
         <v>0</v>
       </c>
       <c r="V3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!V3</f>
         <v>0</v>
       </c>
       <c r="W3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!W3</f>
         <v>0</v>
       </c>
       <c r="X3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!X3</f>
         <v>0</v>
       </c>
       <c r="Y3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Y3</f>
         <v>0</v>
       </c>
       <c r="Z3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Z3</f>
         <v>0</v>
       </c>
       <c r="AA3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AA3</f>
         <v>0</v>
       </c>
       <c r="AB3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AB3</f>
         <v>0</v>
       </c>
       <c r="AC3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AC3</f>
         <v>0</v>
       </c>
       <c r="AD3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AD3</f>
         <v>0</v>
       </c>
       <c r="AE3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AE3</f>
         <v>0</v>
       </c>
       <c r="AF3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AF3</f>
         <v>0</v>
       </c>
       <c r="AG3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AG3</f>
         <v>0</v>
       </c>
       <c r="AH3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AH3</f>
         <v>0</v>
       </c>
       <c r="AI3">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AI3</f>
         <v>0</v>
       </c>
     </row>
@@ -59870,106 +59382,140 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!B4</f>
+        <v>0.96959627513636359</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!C4</f>
+        <v>0.96959627513636359</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!D4</f>
+        <v>0.96959627513636359</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!E4</f>
+        <v>0.9661190162809925</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!F4</f>
+        <v>0.96264175742562053</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!G4</f>
+        <v>0.95916449857024855</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!H4</f>
+        <v>0.95568723971487657</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!I4</f>
+        <v>0.95220998085950459</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!J4</f>
+        <v>0.94873272200413261</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!K4</f>
+        <v>0.94525546314876063</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!L4</f>
+        <v>0.94177820429338865</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!M4</f>
+        <v>0.93830094543801668</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!N4</f>
+        <v>0.9348236865826447</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!O4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!P4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Q4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!R4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!S4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!T4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!U4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!V4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!W4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!X4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Y4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Z4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AA4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AB4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AC4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AD4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AE4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AF4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AG4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AH4</f>
+        <v>0.93134642772727272</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AI4</f>
+        <v>0.93134642772727272</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -59977,105 +59523,139 @@
         <v>6</v>
       </c>
       <c r="B5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!B5</f>
         <v>0</v>
       </c>
       <c r="C5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!C5</f>
         <v>0</v>
       </c>
       <c r="D5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!D5</f>
         <v>0</v>
       </c>
       <c r="E5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!E5</f>
         <v>0</v>
       </c>
       <c r="F5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!F5</f>
         <v>0</v>
       </c>
       <c r="G5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!G5</f>
         <v>0</v>
       </c>
       <c r="H5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!H5</f>
         <v>0</v>
       </c>
       <c r="I5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!I5</f>
         <v>0</v>
       </c>
       <c r="J5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!J5</f>
         <v>0</v>
       </c>
       <c r="K5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!K5</f>
         <v>0</v>
       </c>
       <c r="L5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!L5</f>
         <v>0</v>
       </c>
       <c r="M5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!M5</f>
         <v>0</v>
       </c>
       <c r="N5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!N5</f>
         <v>0</v>
       </c>
       <c r="O5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!O5</f>
         <v>0</v>
       </c>
       <c r="P5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!P5</f>
         <v>0</v>
       </c>
       <c r="Q5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Q5</f>
         <v>0</v>
       </c>
       <c r="R5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!R5</f>
         <v>0</v>
       </c>
       <c r="S5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!S5</f>
         <v>0</v>
       </c>
       <c r="T5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!T5</f>
         <v>0</v>
       </c>
       <c r="U5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!U5</f>
         <v>0</v>
       </c>
       <c r="V5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!V5</f>
         <v>0</v>
       </c>
       <c r="W5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!W5</f>
         <v>0</v>
       </c>
       <c r="X5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!X5</f>
         <v>0</v>
       </c>
       <c r="Y5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Y5</f>
         <v>0</v>
       </c>
       <c r="Z5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Z5</f>
         <v>0</v>
       </c>
       <c r="AA5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AA5</f>
         <v>0</v>
       </c>
       <c r="AB5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AB5</f>
         <v>0</v>
       </c>
       <c r="AC5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AC5</f>
         <v>0</v>
       </c>
       <c r="AD5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AD5</f>
         <v>0</v>
       </c>
       <c r="AE5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AE5</f>
         <v>0</v>
       </c>
       <c r="AF5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AF5</f>
         <v>0</v>
       </c>
       <c r="AG5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AG5</f>
         <v>0</v>
       </c>
       <c r="AH5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AH5</f>
         <v>0</v>
       </c>
       <c r="AI5">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AI5</f>
         <v>0</v>
       </c>
     </row>
@@ -60084,106 +59664,140 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!B6</f>
+        <v>3.040372486363636E-2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!C6</f>
+        <v>3.040372486363636E-2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!D6</f>
+        <v>3.040372486363636E-2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!E6</f>
+        <v>3.3880983719007496E-2</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!F6</f>
+        <v>3.7358242574379474E-2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!G6</f>
+        <v>4.0835501429751453E-2</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!H6</f>
+        <v>4.4312760285123431E-2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!I6</f>
+        <v>4.779001914049541E-2</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!J6</f>
+        <v>5.1267277995867389E-2</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!K6</f>
+        <v>5.4744536851239367E-2</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!L6</f>
+        <v>5.8221795706611346E-2</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!M6</f>
+        <v>6.1699054561983324E-2</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!N6</f>
+        <v>6.5176313417355303E-2</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!O6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!P6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Q6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!R6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!S6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!T6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!U6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!V6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!W6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!X6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Y6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Z6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AA6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AB6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AC6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AD6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AE6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AF6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AG6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AH6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AI6</f>
+        <v>6.8653572272727281E-2</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -60191,105 +59805,139 @@
         <v>9</v>
       </c>
       <c r="B7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!B7</f>
         <v>0</v>
       </c>
       <c r="C7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!C7</f>
         <v>0</v>
       </c>
       <c r="D7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!D7</f>
         <v>0</v>
       </c>
       <c r="E7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!E7</f>
         <v>0</v>
       </c>
       <c r="F7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!F7</f>
         <v>0</v>
       </c>
       <c r="G7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!G7</f>
         <v>0</v>
       </c>
       <c r="H7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!H7</f>
         <v>0</v>
       </c>
       <c r="I7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!I7</f>
         <v>0</v>
       </c>
       <c r="J7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!J7</f>
         <v>0</v>
       </c>
       <c r="K7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!K7</f>
         <v>0</v>
       </c>
       <c r="L7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!L7</f>
         <v>0</v>
       </c>
       <c r="M7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!M7</f>
         <v>0</v>
       </c>
       <c r="N7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!N7</f>
         <v>0</v>
       </c>
       <c r="O7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!O7</f>
         <v>0</v>
       </c>
       <c r="P7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!P7</f>
         <v>0</v>
       </c>
       <c r="Q7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Q7</f>
         <v>0</v>
       </c>
       <c r="R7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!R7</f>
         <v>0</v>
       </c>
       <c r="S7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!S7</f>
         <v>0</v>
       </c>
       <c r="T7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!T7</f>
         <v>0</v>
       </c>
       <c r="U7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!U7</f>
         <v>0</v>
       </c>
       <c r="V7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!V7</f>
         <v>0</v>
       </c>
       <c r="W7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!W7</f>
         <v>0</v>
       </c>
       <c r="X7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!X7</f>
         <v>0</v>
       </c>
       <c r="Y7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Y7</f>
         <v>0</v>
       </c>
       <c r="Z7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Z7</f>
         <v>0</v>
       </c>
       <c r="AA7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AA7</f>
         <v>0</v>
       </c>
       <c r="AB7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AB7</f>
         <v>0</v>
       </c>
       <c r="AC7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AC7</f>
         <v>0</v>
       </c>
       <c r="AD7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AD7</f>
         <v>0</v>
       </c>
       <c r="AE7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AE7</f>
         <v>0</v>
       </c>
       <c r="AF7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AF7</f>
         <v>0</v>
       </c>
       <c r="AG7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AG7</f>
         <v>0</v>
       </c>
       <c r="AH7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AH7</f>
         <v>0</v>
       </c>
       <c r="AI7">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AI7</f>
         <v>0</v>
       </c>
     </row>
@@ -60298,105 +59946,139 @@
         <v>8</v>
       </c>
       <c r="B8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!B8</f>
         <v>0</v>
       </c>
       <c r="C8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!C8</f>
         <v>0</v>
       </c>
       <c r="D8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!D8</f>
         <v>0</v>
       </c>
       <c r="E8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!E8</f>
         <v>0</v>
       </c>
       <c r="F8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!F8</f>
         <v>0</v>
       </c>
       <c r="G8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!G8</f>
         <v>0</v>
       </c>
       <c r="H8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!H8</f>
         <v>0</v>
       </c>
       <c r="I8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!I8</f>
         <v>0</v>
       </c>
       <c r="J8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!J8</f>
         <v>0</v>
       </c>
       <c r="K8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!K8</f>
         <v>0</v>
       </c>
       <c r="L8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!L8</f>
         <v>0</v>
       </c>
       <c r="M8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!M8</f>
         <v>0</v>
       </c>
       <c r="N8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!N8</f>
         <v>0</v>
       </c>
       <c r="O8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!O8</f>
         <v>0</v>
       </c>
       <c r="P8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!P8</f>
         <v>0</v>
       </c>
       <c r="Q8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Q8</f>
         <v>0</v>
       </c>
       <c r="R8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!R8</f>
         <v>0</v>
       </c>
       <c r="S8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!S8</f>
         <v>0</v>
       </c>
       <c r="T8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!T8</f>
         <v>0</v>
       </c>
       <c r="U8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!U8</f>
         <v>0</v>
       </c>
       <c r="V8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!V8</f>
         <v>0</v>
       </c>
       <c r="W8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!W8</f>
         <v>0</v>
       </c>
       <c r="X8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!X8</f>
         <v>0</v>
       </c>
       <c r="Y8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Y8</f>
         <v>0</v>
       </c>
       <c r="Z8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Z8</f>
         <v>0</v>
       </c>
       <c r="AA8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AA8</f>
         <v>0</v>
       </c>
       <c r="AB8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AB8</f>
         <v>0</v>
       </c>
       <c r="AC8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AC8</f>
         <v>0</v>
       </c>
       <c r="AD8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AD8</f>
         <v>0</v>
       </c>
       <c r="AE8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AE8</f>
         <v>0</v>
       </c>
       <c r="AF8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AF8</f>
         <v>0</v>
       </c>
       <c r="AG8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AG8</f>
         <v>0</v>
       </c>
       <c r="AH8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AH8</f>
         <v>0</v>
       </c>
       <c r="AI8">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AI8</f>
         <v>0</v>
       </c>
     </row>
@@ -60405,105 +60087,139 @@
         <v>33</v>
       </c>
       <c r="B9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!B9</f>
         <v>0</v>
       </c>
       <c r="C9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!C9</f>
         <v>0</v>
       </c>
       <c r="D9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!D9</f>
         <v>0</v>
       </c>
       <c r="E9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!E9</f>
         <v>0</v>
       </c>
       <c r="F9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!F9</f>
         <v>0</v>
       </c>
       <c r="G9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!G9</f>
         <v>0</v>
       </c>
       <c r="H9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!H9</f>
         <v>0</v>
       </c>
       <c r="I9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!I9</f>
         <v>0</v>
       </c>
       <c r="J9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!J9</f>
         <v>0</v>
       </c>
       <c r="K9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!K9</f>
         <v>0</v>
       </c>
       <c r="L9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!L9</f>
         <v>0</v>
       </c>
       <c r="M9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!M9</f>
         <v>0</v>
       </c>
       <c r="N9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!N9</f>
         <v>0</v>
       </c>
       <c r="O9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!O9</f>
         <v>0</v>
       </c>
       <c r="P9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!P9</f>
         <v>0</v>
       </c>
       <c r="Q9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Q9</f>
         <v>0</v>
       </c>
       <c r="R9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!R9</f>
         <v>0</v>
       </c>
       <c r="S9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!S9</f>
         <v>0</v>
       </c>
       <c r="T9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!T9</f>
         <v>0</v>
       </c>
       <c r="U9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!U9</f>
         <v>0</v>
       </c>
       <c r="V9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!V9</f>
         <v>0</v>
       </c>
       <c r="W9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!W9</f>
         <v>0</v>
       </c>
       <c r="X9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!X9</f>
         <v>0</v>
       </c>
       <c r="Y9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Y9</f>
         <v>0</v>
       </c>
       <c r="Z9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Z9</f>
         <v>0</v>
       </c>
       <c r="AA9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AA9</f>
         <v>0</v>
       </c>
       <c r="AB9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AB9</f>
         <v>0</v>
       </c>
       <c r="AC9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AC9</f>
         <v>0</v>
       </c>
       <c r="AD9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AD9</f>
         <v>0</v>
       </c>
       <c r="AE9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AE9</f>
         <v>0</v>
       </c>
       <c r="AF9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AF9</f>
         <v>0</v>
       </c>
       <c r="AG9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AG9</f>
         <v>0</v>
       </c>
       <c r="AH9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AH9</f>
         <v>0</v>
       </c>
       <c r="AI9">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AI9</f>
         <v>0</v>
       </c>
     </row>
@@ -60512,105 +60228,139 @@
         <v>34</v>
       </c>
       <c r="B10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!B10</f>
         <v>0</v>
       </c>
       <c r="C10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!C10</f>
         <v>0</v>
       </c>
       <c r="D10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!D10</f>
         <v>0</v>
       </c>
       <c r="E10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!E10</f>
         <v>0</v>
       </c>
       <c r="F10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!F10</f>
         <v>0</v>
       </c>
       <c r="G10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!G10</f>
         <v>0</v>
       </c>
       <c r="H10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!H10</f>
         <v>0</v>
       </c>
       <c r="I10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!I10</f>
         <v>0</v>
       </c>
       <c r="J10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!J10</f>
         <v>0</v>
       </c>
       <c r="K10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!K10</f>
         <v>0</v>
       </c>
       <c r="L10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!L10</f>
         <v>0</v>
       </c>
       <c r="M10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!M10</f>
         <v>0</v>
       </c>
       <c r="N10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!N10</f>
         <v>0</v>
       </c>
       <c r="O10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!O10</f>
         <v>0</v>
       </c>
       <c r="P10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!P10</f>
         <v>0</v>
       </c>
       <c r="Q10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Q10</f>
         <v>0</v>
       </c>
       <c r="R10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!R10</f>
         <v>0</v>
       </c>
       <c r="S10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!S10</f>
         <v>0</v>
       </c>
       <c r="T10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!T10</f>
         <v>0</v>
       </c>
       <c r="U10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!U10</f>
         <v>0</v>
       </c>
       <c r="V10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!V10</f>
         <v>0</v>
       </c>
       <c r="W10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!W10</f>
         <v>0</v>
       </c>
       <c r="X10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!X10</f>
         <v>0</v>
       </c>
       <c r="Y10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Y10</f>
         <v>0</v>
       </c>
       <c r="Z10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Z10</f>
         <v>0</v>
       </c>
       <c r="AA10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AA10</f>
         <v>0</v>
       </c>
       <c r="AB10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AB10</f>
         <v>0</v>
       </c>
       <c r="AC10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AC10</f>
         <v>0</v>
       </c>
       <c r="AD10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AD10</f>
         <v>0</v>
       </c>
       <c r="AE10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AE10</f>
         <v>0</v>
       </c>
       <c r="AF10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AF10</f>
         <v>0</v>
       </c>
       <c r="AG10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AG10</f>
         <v>0</v>
       </c>
       <c r="AH10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AH10</f>
         <v>0</v>
       </c>
       <c r="AI10">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AI10</f>
         <v>0</v>
       </c>
     </row>
@@ -60619,105 +60369,139 @@
         <v>35</v>
       </c>
       <c r="B11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!B11</f>
         <v>0</v>
       </c>
       <c r="C11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!C11</f>
         <v>0</v>
       </c>
       <c r="D11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!D11</f>
         <v>0</v>
       </c>
       <c r="E11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!E11</f>
         <v>0</v>
       </c>
       <c r="F11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!F11</f>
         <v>0</v>
       </c>
       <c r="G11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!G11</f>
         <v>0</v>
       </c>
       <c r="H11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!H11</f>
         <v>0</v>
       </c>
       <c r="I11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!I11</f>
         <v>0</v>
       </c>
       <c r="J11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!J11</f>
         <v>0</v>
       </c>
       <c r="K11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!K11</f>
         <v>0</v>
       </c>
       <c r="L11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!L11</f>
         <v>0</v>
       </c>
       <c r="M11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!M11</f>
         <v>0</v>
       </c>
       <c r="N11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!N11</f>
         <v>0</v>
       </c>
       <c r="O11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!O11</f>
         <v>0</v>
       </c>
       <c r="P11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!P11</f>
         <v>0</v>
       </c>
       <c r="Q11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Q11</f>
         <v>0</v>
       </c>
       <c r="R11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!R11</f>
         <v>0</v>
       </c>
       <c r="S11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!S11</f>
         <v>0</v>
       </c>
       <c r="T11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!T11</f>
         <v>0</v>
       </c>
       <c r="U11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!U11</f>
         <v>0</v>
       </c>
       <c r="V11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!V11</f>
         <v>0</v>
       </c>
       <c r="W11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!W11</f>
         <v>0</v>
       </c>
       <c r="X11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!X11</f>
         <v>0</v>
       </c>
       <c r="Y11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Y11</f>
         <v>0</v>
       </c>
       <c r="Z11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!Z11</f>
         <v>0</v>
       </c>
       <c r="AA11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AA11</f>
         <v>0</v>
       </c>
       <c r="AB11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AB11</f>
         <v>0</v>
       </c>
       <c r="AC11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AC11</f>
         <v>0</v>
       </c>
       <c r="AD11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AD11</f>
         <v>0</v>
       </c>
       <c r="AE11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AE11</f>
         <v>0</v>
       </c>
       <c r="AF11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AF11</f>
         <v>0</v>
       </c>
       <c r="AG11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AG11</f>
         <v>0</v>
       </c>
       <c r="AH11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AH11</f>
         <v>0</v>
       </c>
       <c r="AI11">
+        <f>'BPoEFUbVT-LDVs-psgr-gasveh'!AI11</f>
         <v>0</v>
       </c>
     </row>
@@ -60733,8 +60517,8 @@
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60854,105 +60638,139 @@
         <v>3</v>
       </c>
       <c r="B2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!B2</f>
         <v>0</v>
       </c>
       <c r="C2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!C2</f>
         <v>0</v>
       </c>
       <c r="D2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!D2</f>
         <v>0</v>
       </c>
       <c r="E2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!E2</f>
         <v>0</v>
       </c>
       <c r="F2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!F2</f>
         <v>0</v>
       </c>
       <c r="G2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!G2</f>
         <v>0</v>
       </c>
       <c r="H2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!H2</f>
         <v>0</v>
       </c>
       <c r="I2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!I2</f>
         <v>0</v>
       </c>
       <c r="J2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!J2</f>
         <v>0</v>
       </c>
       <c r="K2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!K2</f>
         <v>0</v>
       </c>
       <c r="L2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!L2</f>
         <v>0</v>
       </c>
       <c r="M2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!M2</f>
         <v>0</v>
       </c>
       <c r="N2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!N2</f>
         <v>0</v>
       </c>
       <c r="O2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!O2</f>
         <v>0</v>
       </c>
       <c r="P2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!P2</f>
         <v>0</v>
       </c>
       <c r="Q2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Q2</f>
         <v>0</v>
       </c>
       <c r="R2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!R2</f>
         <v>0</v>
       </c>
       <c r="S2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!S2</f>
         <v>0</v>
       </c>
       <c r="T2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!T2</f>
         <v>0</v>
       </c>
       <c r="U2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!U2</f>
         <v>0</v>
       </c>
       <c r="V2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!V2</f>
         <v>0</v>
       </c>
       <c r="W2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!W2</f>
         <v>0</v>
       </c>
       <c r="X2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!X2</f>
         <v>0</v>
       </c>
       <c r="Y2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Y2</f>
         <v>0</v>
       </c>
       <c r="Z2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Z2</f>
         <v>0</v>
       </c>
       <c r="AA2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AA2</f>
         <v>0</v>
       </c>
       <c r="AB2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AB2</f>
         <v>0</v>
       </c>
       <c r="AC2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AC2</f>
         <v>0</v>
       </c>
       <c r="AD2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AD2</f>
         <v>0</v>
       </c>
       <c r="AE2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AE2</f>
         <v>0</v>
       </c>
       <c r="AF2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AF2</f>
         <v>0</v>
       </c>
       <c r="AG2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AG2</f>
         <v>0</v>
       </c>
       <c r="AH2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AH2</f>
         <v>0</v>
       </c>
       <c r="AI2">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AI2</f>
         <v>0</v>
       </c>
     </row>
@@ -60961,105 +60779,139 @@
         <v>4</v>
       </c>
       <c r="B3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!B3</f>
         <v>0</v>
       </c>
       <c r="C3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!C3</f>
         <v>0</v>
       </c>
       <c r="D3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!D3</f>
         <v>0</v>
       </c>
       <c r="E3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!E3</f>
         <v>0</v>
       </c>
       <c r="F3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!F3</f>
         <v>0</v>
       </c>
       <c r="G3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!G3</f>
         <v>0</v>
       </c>
       <c r="H3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!H3</f>
         <v>0</v>
       </c>
       <c r="I3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!I3</f>
         <v>0</v>
       </c>
       <c r="J3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!J3</f>
         <v>0</v>
       </c>
       <c r="K3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!K3</f>
         <v>0</v>
       </c>
       <c r="L3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!L3</f>
         <v>0</v>
       </c>
       <c r="M3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!M3</f>
         <v>0</v>
       </c>
       <c r="N3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!N3</f>
         <v>0</v>
       </c>
       <c r="O3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!O3</f>
         <v>0</v>
       </c>
       <c r="P3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!P3</f>
         <v>0</v>
       </c>
       <c r="Q3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Q3</f>
         <v>0</v>
       </c>
       <c r="R3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!R3</f>
         <v>0</v>
       </c>
       <c r="S3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!S3</f>
         <v>0</v>
       </c>
       <c r="T3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!T3</f>
         <v>0</v>
       </c>
       <c r="U3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!U3</f>
         <v>0</v>
       </c>
       <c r="V3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!V3</f>
         <v>0</v>
       </c>
       <c r="W3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!W3</f>
         <v>0</v>
       </c>
       <c r="X3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!X3</f>
         <v>0</v>
       </c>
       <c r="Y3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Y3</f>
         <v>0</v>
       </c>
       <c r="Z3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Z3</f>
         <v>0</v>
       </c>
       <c r="AA3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AA3</f>
         <v>0</v>
       </c>
       <c r="AB3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AB3</f>
         <v>0</v>
       </c>
       <c r="AC3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AC3</f>
         <v>0</v>
       </c>
       <c r="AD3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AD3</f>
         <v>0</v>
       </c>
       <c r="AE3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AE3</f>
         <v>0</v>
       </c>
       <c r="AF3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AF3</f>
         <v>0</v>
       </c>
       <c r="AG3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AG3</f>
         <v>0</v>
       </c>
       <c r="AH3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AH3</f>
         <v>0</v>
       </c>
       <c r="AI3">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AI3</f>
         <v>0</v>
       </c>
     </row>
@@ -61068,105 +60920,139 @@
         <v>5</v>
       </c>
       <c r="B4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!B4</f>
         <v>0</v>
       </c>
       <c r="C4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!C4</f>
         <v>0</v>
       </c>
       <c r="D4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!D4</f>
         <v>0</v>
       </c>
       <c r="E4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!E4</f>
         <v>0</v>
       </c>
       <c r="F4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!F4</f>
         <v>0</v>
       </c>
       <c r="G4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!G4</f>
         <v>0</v>
       </c>
       <c r="H4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!H4</f>
         <v>0</v>
       </c>
       <c r="I4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!I4</f>
         <v>0</v>
       </c>
       <c r="J4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!J4</f>
         <v>0</v>
       </c>
       <c r="K4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!K4</f>
         <v>0</v>
       </c>
       <c r="L4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!L4</f>
         <v>0</v>
       </c>
       <c r="M4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!M4</f>
         <v>0</v>
       </c>
       <c r="N4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!N4</f>
         <v>0</v>
       </c>
       <c r="O4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!O4</f>
         <v>0</v>
       </c>
       <c r="P4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!P4</f>
         <v>0</v>
       </c>
       <c r="Q4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Q4</f>
         <v>0</v>
       </c>
       <c r="R4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!R4</f>
         <v>0</v>
       </c>
       <c r="S4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!S4</f>
         <v>0</v>
       </c>
       <c r="T4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!T4</f>
         <v>0</v>
       </c>
       <c r="U4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!U4</f>
         <v>0</v>
       </c>
       <c r="V4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!V4</f>
         <v>0</v>
       </c>
       <c r="W4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!W4</f>
         <v>0</v>
       </c>
       <c r="X4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!X4</f>
         <v>0</v>
       </c>
       <c r="Y4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Y4</f>
         <v>0</v>
       </c>
       <c r="Z4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Z4</f>
         <v>0</v>
       </c>
       <c r="AA4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AA4</f>
         <v>0</v>
       </c>
       <c r="AB4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AB4</f>
         <v>0</v>
       </c>
       <c r="AC4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AC4</f>
         <v>0</v>
       </c>
       <c r="AD4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AD4</f>
         <v>0</v>
       </c>
       <c r="AE4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AE4</f>
         <v>0</v>
       </c>
       <c r="AF4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AF4</f>
         <v>0</v>
       </c>
       <c r="AG4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AG4</f>
         <v>0</v>
       </c>
       <c r="AH4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AH4</f>
         <v>0</v>
       </c>
       <c r="AI4">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AI4</f>
         <v>0</v>
       </c>
     </row>
@@ -61175,106 +61061,140 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!B5</f>
+        <v>0.95</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!C5</f>
+        <v>0.95</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!D5</f>
+        <v>0.95</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!E5</f>
+        <v>0.95</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!F5</f>
+        <v>0.95</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!G5</f>
+        <v>0.95</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!H5</f>
+        <v>0.95</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!I5</f>
+        <v>0.95</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!J5</f>
+        <v>0.95</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!K5</f>
+        <v>0.95</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!L5</f>
+        <v>0.95</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!M5</f>
+        <v>0.95</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!N5</f>
+        <v>0.95</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!O5</f>
+        <v>0.95</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!P5</f>
+        <v>0.95</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Q5</f>
+        <v>0.95</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!R5</f>
+        <v>0.95</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!S5</f>
+        <v>0.95</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!T5</f>
+        <v>0.95</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!U5</f>
+        <v>0.95</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!V5</f>
+        <v>0.95</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!W5</f>
+        <v>0.95</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!X5</f>
+        <v>0.95</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Y5</f>
+        <v>0.95</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Z5</f>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AA5</f>
+        <v>0.95</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AB5</f>
+        <v>0.95</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AC5</f>
+        <v>0.95</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AD5</f>
+        <v>0.95</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AE5</f>
+        <v>0.95</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AF5</f>
+        <v>0.95</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AG5</f>
+        <v>0.95</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AH5</f>
+        <v>0.95</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AI5</f>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -61282,105 +61202,139 @@
         <v>7</v>
       </c>
       <c r="B6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!B6</f>
         <v>0</v>
       </c>
       <c r="C6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!C6</f>
         <v>0</v>
       </c>
       <c r="D6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!D6</f>
         <v>0</v>
       </c>
       <c r="E6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!E6</f>
         <v>0</v>
       </c>
       <c r="F6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!F6</f>
         <v>0</v>
       </c>
       <c r="G6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!G6</f>
         <v>0</v>
       </c>
       <c r="H6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!H6</f>
         <v>0</v>
       </c>
       <c r="I6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!I6</f>
         <v>0</v>
       </c>
       <c r="J6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!J6</f>
         <v>0</v>
       </c>
       <c r="K6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!K6</f>
         <v>0</v>
       </c>
       <c r="L6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!L6</f>
         <v>0</v>
       </c>
       <c r="M6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!M6</f>
         <v>0</v>
       </c>
       <c r="N6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!N6</f>
         <v>0</v>
       </c>
       <c r="O6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!O6</f>
         <v>0</v>
       </c>
       <c r="P6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!P6</f>
         <v>0</v>
       </c>
       <c r="Q6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Q6</f>
         <v>0</v>
       </c>
       <c r="R6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!R6</f>
         <v>0</v>
       </c>
       <c r="S6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!S6</f>
         <v>0</v>
       </c>
       <c r="T6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!T6</f>
         <v>0</v>
       </c>
       <c r="U6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!U6</f>
         <v>0</v>
       </c>
       <c r="V6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!V6</f>
         <v>0</v>
       </c>
       <c r="W6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!W6</f>
         <v>0</v>
       </c>
       <c r="X6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!X6</f>
         <v>0</v>
       </c>
       <c r="Y6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Y6</f>
         <v>0</v>
       </c>
       <c r="Z6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Z6</f>
         <v>0</v>
       </c>
       <c r="AA6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AA6</f>
         <v>0</v>
       </c>
       <c r="AB6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AB6</f>
         <v>0</v>
       </c>
       <c r="AC6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AC6</f>
         <v>0</v>
       </c>
       <c r="AD6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AD6</f>
         <v>0</v>
       </c>
       <c r="AE6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AE6</f>
         <v>0</v>
       </c>
       <c r="AF6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AF6</f>
         <v>0</v>
       </c>
       <c r="AG6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AG6</f>
         <v>0</v>
       </c>
       <c r="AH6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AH6</f>
         <v>0</v>
       </c>
       <c r="AI6">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AI6</f>
         <v>0</v>
       </c>
     </row>
@@ -61389,106 +61343,140 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!B7</f>
+        <v>0.05</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!C7</f>
+        <v>0.05</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!D7</f>
+        <v>0.05</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!E7</f>
+        <v>0.05</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!F7</f>
+        <v>0.05</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!G7</f>
+        <v>0.05</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!H7</f>
+        <v>0.05</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!I7</f>
+        <v>0.05</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!J7</f>
+        <v>0.05</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!K7</f>
+        <v>0.05</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!L7</f>
+        <v>0.05</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!M7</f>
+        <v>0.05</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!N7</f>
+        <v>0.05</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!O7</f>
+        <v>0.05</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!P7</f>
+        <v>0.05</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Q7</f>
+        <v>0.05</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!R7</f>
+        <v>0.05</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!S7</f>
+        <v>0.05</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!T7</f>
+        <v>0.05</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!U7</f>
+        <v>0.05</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!V7</f>
+        <v>0.05</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!W7</f>
+        <v>0.05</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!X7</f>
+        <v>0.05</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Y7</f>
+        <v>0.05</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Z7</f>
+        <v>0.05</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AA7</f>
+        <v>0.05</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AB7</f>
+        <v>0.05</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AC7</f>
+        <v>0.05</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AD7</f>
+        <v>0.05</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AE7</f>
+        <v>0.05</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AF7</f>
+        <v>0.05</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AG7</f>
+        <v>0.05</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AH7</f>
+        <v>0.05</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AI7</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -61496,105 +61484,139 @@
         <v>8</v>
       </c>
       <c r="B8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!B8</f>
         <v>0</v>
       </c>
       <c r="C8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!C8</f>
         <v>0</v>
       </c>
       <c r="D8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!D8</f>
         <v>0</v>
       </c>
       <c r="E8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!E8</f>
         <v>0</v>
       </c>
       <c r="F8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!F8</f>
         <v>0</v>
       </c>
       <c r="G8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!G8</f>
         <v>0</v>
       </c>
       <c r="H8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!H8</f>
         <v>0</v>
       </c>
       <c r="I8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!I8</f>
         <v>0</v>
       </c>
       <c r="J8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!J8</f>
         <v>0</v>
       </c>
       <c r="K8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!K8</f>
         <v>0</v>
       </c>
       <c r="L8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!L8</f>
         <v>0</v>
       </c>
       <c r="M8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!M8</f>
         <v>0</v>
       </c>
       <c r="N8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!N8</f>
         <v>0</v>
       </c>
       <c r="O8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!O8</f>
         <v>0</v>
       </c>
       <c r="P8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!P8</f>
         <v>0</v>
       </c>
       <c r="Q8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Q8</f>
         <v>0</v>
       </c>
       <c r="R8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!R8</f>
         <v>0</v>
       </c>
       <c r="S8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!S8</f>
         <v>0</v>
       </c>
       <c r="T8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!T8</f>
         <v>0</v>
       </c>
       <c r="U8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!U8</f>
         <v>0</v>
       </c>
       <c r="V8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!V8</f>
         <v>0</v>
       </c>
       <c r="W8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!W8</f>
         <v>0</v>
       </c>
       <c r="X8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!X8</f>
         <v>0</v>
       </c>
       <c r="Y8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Y8</f>
         <v>0</v>
       </c>
       <c r="Z8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Z8</f>
         <v>0</v>
       </c>
       <c r="AA8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AA8</f>
         <v>0</v>
       </c>
       <c r="AB8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AB8</f>
         <v>0</v>
       </c>
       <c r="AC8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AC8</f>
         <v>0</v>
       </c>
       <c r="AD8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AD8</f>
         <v>0</v>
       </c>
       <c r="AE8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AE8</f>
         <v>0</v>
       </c>
       <c r="AF8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AF8</f>
         <v>0</v>
       </c>
       <c r="AG8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AG8</f>
         <v>0</v>
       </c>
       <c r="AH8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AH8</f>
         <v>0</v>
       </c>
       <c r="AI8">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AI8</f>
         <v>0</v>
       </c>
     </row>
@@ -61603,105 +61625,139 @@
         <v>33</v>
       </c>
       <c r="B9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!B9</f>
         <v>0</v>
       </c>
       <c r="C9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!C9</f>
         <v>0</v>
       </c>
       <c r="D9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!D9</f>
         <v>0</v>
       </c>
       <c r="E9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!E9</f>
         <v>0</v>
       </c>
       <c r="F9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!F9</f>
         <v>0</v>
       </c>
       <c r="G9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!G9</f>
         <v>0</v>
       </c>
       <c r="H9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!H9</f>
         <v>0</v>
       </c>
       <c r="I9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!I9</f>
         <v>0</v>
       </c>
       <c r="J9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!J9</f>
         <v>0</v>
       </c>
       <c r="K9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!K9</f>
         <v>0</v>
       </c>
       <c r="L9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!L9</f>
         <v>0</v>
       </c>
       <c r="M9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!M9</f>
         <v>0</v>
       </c>
       <c r="N9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!N9</f>
         <v>0</v>
       </c>
       <c r="O9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!O9</f>
         <v>0</v>
       </c>
       <c r="P9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!P9</f>
         <v>0</v>
       </c>
       <c r="Q9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Q9</f>
         <v>0</v>
       </c>
       <c r="R9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!R9</f>
         <v>0</v>
       </c>
       <c r="S9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!S9</f>
         <v>0</v>
       </c>
       <c r="T9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!T9</f>
         <v>0</v>
       </c>
       <c r="U9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!U9</f>
         <v>0</v>
       </c>
       <c r="V9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!V9</f>
         <v>0</v>
       </c>
       <c r="W9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!W9</f>
         <v>0</v>
       </c>
       <c r="X9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!X9</f>
         <v>0</v>
       </c>
       <c r="Y9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Y9</f>
         <v>0</v>
       </c>
       <c r="Z9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Z9</f>
         <v>0</v>
       </c>
       <c r="AA9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AA9</f>
         <v>0</v>
       </c>
       <c r="AB9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AB9</f>
         <v>0</v>
       </c>
       <c r="AC9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AC9</f>
         <v>0</v>
       </c>
       <c r="AD9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AD9</f>
         <v>0</v>
       </c>
       <c r="AE9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AE9</f>
         <v>0</v>
       </c>
       <c r="AF9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AF9</f>
         <v>0</v>
       </c>
       <c r="AG9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AG9</f>
         <v>0</v>
       </c>
       <c r="AH9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AH9</f>
         <v>0</v>
       </c>
       <c r="AI9">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AI9</f>
         <v>0</v>
       </c>
     </row>
@@ -61710,105 +61766,139 @@
         <v>34</v>
       </c>
       <c r="B10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!B10</f>
         <v>0</v>
       </c>
       <c r="C10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!C10</f>
         <v>0</v>
       </c>
       <c r="D10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!D10</f>
         <v>0</v>
       </c>
       <c r="E10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!E10</f>
         <v>0</v>
       </c>
       <c r="F10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!F10</f>
         <v>0</v>
       </c>
       <c r="G10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!G10</f>
         <v>0</v>
       </c>
       <c r="H10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!H10</f>
         <v>0</v>
       </c>
       <c r="I10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!I10</f>
         <v>0</v>
       </c>
       <c r="J10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!J10</f>
         <v>0</v>
       </c>
       <c r="K10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!K10</f>
         <v>0</v>
       </c>
       <c r="L10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!L10</f>
         <v>0</v>
       </c>
       <c r="M10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!M10</f>
         <v>0</v>
       </c>
       <c r="N10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!N10</f>
         <v>0</v>
       </c>
       <c r="O10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!O10</f>
         <v>0</v>
       </c>
       <c r="P10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!P10</f>
         <v>0</v>
       </c>
       <c r="Q10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Q10</f>
         <v>0</v>
       </c>
       <c r="R10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!R10</f>
         <v>0</v>
       </c>
       <c r="S10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!S10</f>
         <v>0</v>
       </c>
       <c r="T10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!T10</f>
         <v>0</v>
       </c>
       <c r="U10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!U10</f>
         <v>0</v>
       </c>
       <c r="V10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!V10</f>
         <v>0</v>
       </c>
       <c r="W10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!W10</f>
         <v>0</v>
       </c>
       <c r="X10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!X10</f>
         <v>0</v>
       </c>
       <c r="Y10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Y10</f>
         <v>0</v>
       </c>
       <c r="Z10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Z10</f>
         <v>0</v>
       </c>
       <c r="AA10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AA10</f>
         <v>0</v>
       </c>
       <c r="AB10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AB10</f>
         <v>0</v>
       </c>
       <c r="AC10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AC10</f>
         <v>0</v>
       </c>
       <c r="AD10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AD10</f>
         <v>0</v>
       </c>
       <c r="AE10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AE10</f>
         <v>0</v>
       </c>
       <c r="AF10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AF10</f>
         <v>0</v>
       </c>
       <c r="AG10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AG10</f>
         <v>0</v>
       </c>
       <c r="AH10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AH10</f>
         <v>0</v>
       </c>
       <c r="AI10">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AI10</f>
         <v>0</v>
       </c>
     </row>
@@ -61817,105 +61907,139 @@
         <v>35</v>
       </c>
       <c r="B11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!B11</f>
         <v>0</v>
       </c>
       <c r="C11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!C11</f>
         <v>0</v>
       </c>
       <c r="D11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!D11</f>
         <v>0</v>
       </c>
       <c r="E11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!E11</f>
         <v>0</v>
       </c>
       <c r="F11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!F11</f>
         <v>0</v>
       </c>
       <c r="G11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!G11</f>
         <v>0</v>
       </c>
       <c r="H11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!H11</f>
         <v>0</v>
       </c>
       <c r="I11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!I11</f>
         <v>0</v>
       </c>
       <c r="J11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!J11</f>
         <v>0</v>
       </c>
       <c r="K11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!K11</f>
         <v>0</v>
       </c>
       <c r="L11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!L11</f>
         <v>0</v>
       </c>
       <c r="M11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!M11</f>
         <v>0</v>
       </c>
       <c r="N11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!N11</f>
         <v>0</v>
       </c>
       <c r="O11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!O11</f>
         <v>0</v>
       </c>
       <c r="P11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!P11</f>
         <v>0</v>
       </c>
       <c r="Q11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Q11</f>
         <v>0</v>
       </c>
       <c r="R11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!R11</f>
         <v>0</v>
       </c>
       <c r="S11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!S11</f>
         <v>0</v>
       </c>
       <c r="T11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!T11</f>
         <v>0</v>
       </c>
       <c r="U11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!U11</f>
         <v>0</v>
       </c>
       <c r="V11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!V11</f>
         <v>0</v>
       </c>
       <c r="W11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!W11</f>
         <v>0</v>
       </c>
       <c r="X11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!X11</f>
         <v>0</v>
       </c>
       <c r="Y11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Y11</f>
         <v>0</v>
       </c>
       <c r="Z11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!Z11</f>
         <v>0</v>
       </c>
       <c r="AA11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AA11</f>
         <v>0</v>
       </c>
       <c r="AB11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AB11</f>
         <v>0</v>
       </c>
       <c r="AC11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AC11</f>
         <v>0</v>
       </c>
       <c r="AD11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AD11</f>
         <v>0</v>
       </c>
       <c r="AE11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AE11</f>
         <v>0</v>
       </c>
       <c r="AF11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AF11</f>
         <v>0</v>
       </c>
       <c r="AG11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AG11</f>
         <v>0</v>
       </c>
       <c r="AH11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AH11</f>
         <v>0</v>
       </c>
       <c r="AI11">
+        <f>'BPoEFUbVT-LDVs-psgr-dslveh'!AI11</f>
         <v>0</v>
       </c>
     </row>
@@ -76642,7 +76766,9 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AI1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -76654,139 +76780,105 @@
         <v>32</v>
       </c>
       <c r="B1">
-        <f>'[1]AEO 37'!C1</f>
         <v>2017</v>
       </c>
       <c r="C1">
-        <f>'[1]AEO 37'!D1</f>
         <v>2018</v>
       </c>
       <c r="D1">
-        <f>'[1]AEO 37'!E1</f>
         <v>2019</v>
       </c>
       <c r="E1">
-        <f>'[1]AEO 37'!F1</f>
         <v>2020</v>
       </c>
       <c r="F1">
-        <f>'[1]AEO 37'!G1</f>
         <v>2021</v>
       </c>
       <c r="G1">
-        <f>'[1]AEO 37'!H1</f>
         <v>2022</v>
       </c>
       <c r="H1">
-        <f>'[1]AEO 37'!I1</f>
         <v>2023</v>
       </c>
       <c r="I1">
-        <f>'[1]AEO 37'!J1</f>
         <v>2024</v>
       </c>
       <c r="J1">
-        <f>'[1]AEO 37'!K1</f>
         <v>2025</v>
       </c>
       <c r="K1">
-        <f>'[1]AEO 37'!L1</f>
         <v>2026</v>
       </c>
       <c r="L1">
-        <f>'[1]AEO 37'!M1</f>
         <v>2027</v>
       </c>
       <c r="M1">
-        <f>'[1]AEO 37'!N1</f>
         <v>2028</v>
       </c>
       <c r="N1">
-        <f>'[1]AEO 37'!O1</f>
         <v>2029</v>
       </c>
       <c r="O1">
-        <f>'[1]AEO 37'!P1</f>
         <v>2030</v>
       </c>
       <c r="P1">
-        <f>'[1]AEO 37'!Q1</f>
         <v>2031</v>
       </c>
       <c r="Q1">
-        <f>'[1]AEO 37'!R1</f>
         <v>2032</v>
       </c>
       <c r="R1">
-        <f>'[1]AEO 37'!S1</f>
         <v>2033</v>
       </c>
       <c r="S1">
-        <f>'[1]AEO 37'!T1</f>
         <v>2034</v>
       </c>
       <c r="T1">
-        <f>'[1]AEO 37'!U1</f>
         <v>2035</v>
       </c>
       <c r="U1">
-        <f>'[1]AEO 37'!V1</f>
         <v>2036</v>
       </c>
       <c r="V1">
-        <f>'[1]AEO 37'!W1</f>
         <v>2037</v>
       </c>
       <c r="W1">
-        <f>'[1]AEO 37'!X1</f>
         <v>2038</v>
       </c>
       <c r="X1">
-        <f>'[1]AEO 37'!Y1</f>
         <v>2039</v>
       </c>
       <c r="Y1">
-        <f>'[1]AEO 37'!Z1</f>
         <v>2040</v>
       </c>
       <c r="Z1">
-        <f>'[1]AEO 37'!AA1</f>
         <v>2041</v>
       </c>
       <c r="AA1">
-        <f>'[1]AEO 37'!AB1</f>
         <v>2042</v>
       </c>
       <c r="AB1">
-        <f>'[1]AEO 37'!AC1</f>
         <v>2043</v>
       </c>
       <c r="AC1">
-        <f>'[1]AEO 37'!AD1</f>
         <v>2044</v>
       </c>
       <c r="AD1">
-        <f>'[1]AEO 37'!AE1</f>
         <v>2045</v>
       </c>
       <c r="AE1">
-        <f>'[1]AEO 37'!AF1</f>
         <v>2046</v>
       </c>
       <c r="AF1">
-        <f>'[1]AEO 37'!AG1</f>
         <v>2047</v>
       </c>
       <c r="AG1">
-        <f>'[1]AEO 37'!AH1</f>
         <v>2048</v>
       </c>
       <c r="AH1">
-        <f>'[1]AEO 37'!AI1</f>
         <v>2049</v>
       </c>
       <c r="AI1">
-        <f>'[1]AEO 37'!AJ1</f>
         <v>2050</v>
       </c>
     </row>
@@ -79140,7 +79232,9 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AI1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -79152,139 +79246,105 @@
         <v>32</v>
       </c>
       <c r="B1">
-        <f>'[1]AEO 37'!C1</f>
         <v>2017</v>
       </c>
       <c r="C1">
-        <f>'[1]AEO 37'!D1</f>
         <v>2018</v>
       </c>
       <c r="D1">
-        <f>'[1]AEO 37'!E1</f>
         <v>2019</v>
       </c>
       <c r="E1">
-        <f>'[1]AEO 37'!F1</f>
         <v>2020</v>
       </c>
       <c r="F1">
-        <f>'[1]AEO 37'!G1</f>
         <v>2021</v>
       </c>
       <c r="G1">
-        <f>'[1]AEO 37'!H1</f>
         <v>2022</v>
       </c>
       <c r="H1">
-        <f>'[1]AEO 37'!I1</f>
         <v>2023</v>
       </c>
       <c r="I1">
-        <f>'[1]AEO 37'!J1</f>
         <v>2024</v>
       </c>
       <c r="J1">
-        <f>'[1]AEO 37'!K1</f>
         <v>2025</v>
       </c>
       <c r="K1">
-        <f>'[1]AEO 37'!L1</f>
         <v>2026</v>
       </c>
       <c r="L1">
-        <f>'[1]AEO 37'!M1</f>
         <v>2027</v>
       </c>
       <c r="M1">
-        <f>'[1]AEO 37'!N1</f>
         <v>2028</v>
       </c>
       <c r="N1">
-        <f>'[1]AEO 37'!O1</f>
         <v>2029</v>
       </c>
       <c r="O1">
-        <f>'[1]AEO 37'!P1</f>
         <v>2030</v>
       </c>
       <c r="P1">
-        <f>'[1]AEO 37'!Q1</f>
         <v>2031</v>
       </c>
       <c r="Q1">
-        <f>'[1]AEO 37'!R1</f>
         <v>2032</v>
       </c>
       <c r="R1">
-        <f>'[1]AEO 37'!S1</f>
         <v>2033</v>
       </c>
       <c r="S1">
-        <f>'[1]AEO 37'!T1</f>
         <v>2034</v>
       </c>
       <c r="T1">
-        <f>'[1]AEO 37'!U1</f>
         <v>2035</v>
       </c>
       <c r="U1">
-        <f>'[1]AEO 37'!V1</f>
         <v>2036</v>
       </c>
       <c r="V1">
-        <f>'[1]AEO 37'!W1</f>
         <v>2037</v>
       </c>
       <c r="W1">
-        <f>'[1]AEO 37'!X1</f>
         <v>2038</v>
       </c>
       <c r="X1">
-        <f>'[1]AEO 37'!Y1</f>
         <v>2039</v>
       </c>
       <c r="Y1">
-        <f>'[1]AEO 37'!Z1</f>
         <v>2040</v>
       </c>
       <c r="Z1">
-        <f>'[1]AEO 37'!AA1</f>
         <v>2041</v>
       </c>
       <c r="AA1">
-        <f>'[1]AEO 37'!AB1</f>
         <v>2042</v>
       </c>
       <c r="AB1">
-        <f>'[1]AEO 37'!AC1</f>
         <v>2043</v>
       </c>
       <c r="AC1">
-        <f>'[1]AEO 37'!AD1</f>
         <v>2044</v>
       </c>
       <c r="AD1">
-        <f>'[1]AEO 37'!AE1</f>
         <v>2045</v>
       </c>
       <c r="AE1">
-        <f>'[1]AEO 37'!AF1</f>
         <v>2046</v>
       </c>
       <c r="AF1">
-        <f>'[1]AEO 37'!AG1</f>
         <v>2047</v>
       </c>
       <c r="AG1">
-        <f>'[1]AEO 37'!AH1</f>
         <v>2048</v>
       </c>
       <c r="AH1">
-        <f>'[1]AEO 37'!AI1</f>
         <v>2049</v>
       </c>
       <c r="AI1">
-        <f>'[1]AEO 37'!AJ1</f>
         <v>2050</v>
       </c>
     </row>
@@ -86615,7 +86675,9 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AI1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -86627,139 +86689,105 @@
         <v>32</v>
       </c>
       <c r="B1">
-        <f>'[1]AEO 37'!C1</f>
         <v>2017</v>
       </c>
       <c r="C1">
-        <f>'[1]AEO 37'!D1</f>
         <v>2018</v>
       </c>
       <c r="D1">
-        <f>'[1]AEO 37'!E1</f>
         <v>2019</v>
       </c>
       <c r="E1">
-        <f>'[1]AEO 37'!F1</f>
         <v>2020</v>
       </c>
       <c r="F1">
-        <f>'[1]AEO 37'!G1</f>
         <v>2021</v>
       </c>
       <c r="G1">
-        <f>'[1]AEO 37'!H1</f>
         <v>2022</v>
       </c>
       <c r="H1">
-        <f>'[1]AEO 37'!I1</f>
         <v>2023</v>
       </c>
       <c r="I1">
-        <f>'[1]AEO 37'!J1</f>
         <v>2024</v>
       </c>
       <c r="J1">
-        <f>'[1]AEO 37'!K1</f>
         <v>2025</v>
       </c>
       <c r="K1">
-        <f>'[1]AEO 37'!L1</f>
         <v>2026</v>
       </c>
       <c r="L1">
-        <f>'[1]AEO 37'!M1</f>
         <v>2027</v>
       </c>
       <c r="M1">
-        <f>'[1]AEO 37'!N1</f>
         <v>2028</v>
       </c>
       <c r="N1">
-        <f>'[1]AEO 37'!O1</f>
         <v>2029</v>
       </c>
       <c r="O1">
-        <f>'[1]AEO 37'!P1</f>
         <v>2030</v>
       </c>
       <c r="P1">
-        <f>'[1]AEO 37'!Q1</f>
         <v>2031</v>
       </c>
       <c r="Q1">
-        <f>'[1]AEO 37'!R1</f>
         <v>2032</v>
       </c>
       <c r="R1">
-        <f>'[1]AEO 37'!S1</f>
         <v>2033</v>
       </c>
       <c r="S1">
-        <f>'[1]AEO 37'!T1</f>
         <v>2034</v>
       </c>
       <c r="T1">
-        <f>'[1]AEO 37'!U1</f>
         <v>2035</v>
       </c>
       <c r="U1">
-        <f>'[1]AEO 37'!V1</f>
         <v>2036</v>
       </c>
       <c r="V1">
-        <f>'[1]AEO 37'!W1</f>
         <v>2037</v>
       </c>
       <c r="W1">
-        <f>'[1]AEO 37'!X1</f>
         <v>2038</v>
       </c>
       <c r="X1">
-        <f>'[1]AEO 37'!Y1</f>
         <v>2039</v>
       </c>
       <c r="Y1">
-        <f>'[1]AEO 37'!Z1</f>
         <v>2040</v>
       </c>
       <c r="Z1">
-        <f>'[1]AEO 37'!AA1</f>
         <v>2041</v>
       </c>
       <c r="AA1">
-        <f>'[1]AEO 37'!AB1</f>
         <v>2042</v>
       </c>
       <c r="AB1">
-        <f>'[1]AEO 37'!AC1</f>
         <v>2043</v>
       </c>
       <c r="AC1">
-        <f>'[1]AEO 37'!AD1</f>
         <v>2044</v>
       </c>
       <c r="AD1">
-        <f>'[1]AEO 37'!AE1</f>
         <v>2045</v>
       </c>
       <c r="AE1">
-        <f>'[1]AEO 37'!AF1</f>
         <v>2046</v>
       </c>
       <c r="AF1">
-        <f>'[1]AEO 37'!AG1</f>
         <v>2047</v>
       </c>
       <c r="AG1">
-        <f>'[1]AEO 37'!AH1</f>
         <v>2048</v>
       </c>
       <c r="AH1">
-        <f>'[1]AEO 37'!AI1</f>
         <v>2049</v>
       </c>
       <c r="AI1">
-        <f>'[1]AEO 37'!AJ1</f>
         <v>2050</v>
       </c>
     </row>
@@ -87847,7 +87875,9 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AI1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -87859,139 +87889,105 @@
         <v>32</v>
       </c>
       <c r="B1">
-        <f>'[1]AEO 37'!C1</f>
         <v>2017</v>
       </c>
       <c r="C1">
-        <f>'[1]AEO 37'!D1</f>
         <v>2018</v>
       </c>
       <c r="D1">
-        <f>'[1]AEO 37'!E1</f>
         <v>2019</v>
       </c>
       <c r="E1">
-        <f>'[1]AEO 37'!F1</f>
         <v>2020</v>
       </c>
       <c r="F1">
-        <f>'[1]AEO 37'!G1</f>
         <v>2021</v>
       </c>
       <c r="G1">
-        <f>'[1]AEO 37'!H1</f>
         <v>2022</v>
       </c>
       <c r="H1">
-        <f>'[1]AEO 37'!I1</f>
         <v>2023</v>
       </c>
       <c r="I1">
-        <f>'[1]AEO 37'!J1</f>
         <v>2024</v>
       </c>
       <c r="J1">
-        <f>'[1]AEO 37'!K1</f>
         <v>2025</v>
       </c>
       <c r="K1">
-        <f>'[1]AEO 37'!L1</f>
         <v>2026</v>
       </c>
       <c r="L1">
-        <f>'[1]AEO 37'!M1</f>
         <v>2027</v>
       </c>
       <c r="M1">
-        <f>'[1]AEO 37'!N1</f>
         <v>2028</v>
       </c>
       <c r="N1">
-        <f>'[1]AEO 37'!O1</f>
         <v>2029</v>
       </c>
       <c r="O1">
-        <f>'[1]AEO 37'!P1</f>
         <v>2030</v>
       </c>
       <c r="P1">
-        <f>'[1]AEO 37'!Q1</f>
         <v>2031</v>
       </c>
       <c r="Q1">
-        <f>'[1]AEO 37'!R1</f>
         <v>2032</v>
       </c>
       <c r="R1">
-        <f>'[1]AEO 37'!S1</f>
         <v>2033</v>
       </c>
       <c r="S1">
-        <f>'[1]AEO 37'!T1</f>
         <v>2034</v>
       </c>
       <c r="T1">
-        <f>'[1]AEO 37'!U1</f>
         <v>2035</v>
       </c>
       <c r="U1">
-        <f>'[1]AEO 37'!V1</f>
         <v>2036</v>
       </c>
       <c r="V1">
-        <f>'[1]AEO 37'!W1</f>
         <v>2037</v>
       </c>
       <c r="W1">
-        <f>'[1]AEO 37'!X1</f>
         <v>2038</v>
       </c>
       <c r="X1">
-        <f>'[1]AEO 37'!Y1</f>
         <v>2039</v>
       </c>
       <c r="Y1">
-        <f>'[1]AEO 37'!Z1</f>
         <v>2040</v>
       </c>
       <c r="Z1">
-        <f>'[1]AEO 37'!AA1</f>
         <v>2041</v>
       </c>
       <c r="AA1">
-        <f>'[1]AEO 37'!AB1</f>
         <v>2042</v>
       </c>
       <c r="AB1">
-        <f>'[1]AEO 37'!AC1</f>
         <v>2043</v>
       </c>
       <c r="AC1">
-        <f>'[1]AEO 37'!AD1</f>
         <v>2044</v>
       </c>
       <c r="AD1">
-        <f>'[1]AEO 37'!AE1</f>
         <v>2045</v>
       </c>
       <c r="AE1">
-        <f>'[1]AEO 37'!AF1</f>
         <v>2046</v>
       </c>
       <c r="AF1">
-        <f>'[1]AEO 37'!AG1</f>
         <v>2047</v>
       </c>
       <c r="AG1">
-        <f>'[1]AEO 37'!AH1</f>
         <v>2048</v>
       </c>
       <c r="AH1">
-        <f>'[1]AEO 37'!AI1</f>
         <v>2049</v>
       </c>
       <c r="AI1">
-        <f>'[1]AEO 37'!AJ1</f>
         <v>2050</v>
       </c>
     </row>
